--- a/BDcampeonatomaranhense2025.xlsx
+++ b/BDcampeonatomaranhense2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Projetos\streamlit_projectmulti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2B30E-42CB-43A5-B877-17A94090C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A7BDF-313D-4EE9-B13A-B1A1B87DA839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escalacao" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="622">
   <si>
     <t>CBF</t>
   </si>
@@ -1796,6 +1796,159 @@
   </si>
   <si>
     <t>Cicero Weslley Silva ...</t>
+  </si>
+  <si>
+    <t>21 - Adrian Sousa Oliveira</t>
+  </si>
+  <si>
+    <t>14 - Gleidson Henrique Soares Gomes</t>
+  </si>
+  <si>
+    <t>13 - Raylson Ferreira Ribeiro</t>
+  </si>
+  <si>
+    <t>3 - Andre Lucas Matos Gama</t>
+  </si>
+  <si>
+    <t>18.01.2025</t>
+  </si>
+  <si>
+    <t>Jose Marcos Rocha</t>
+  </si>
+  <si>
+    <t>GUSTAVO LI</t>
+  </si>
+  <si>
+    <t>Gustavo Nobre Lima</t>
+  </si>
+  <si>
+    <t>Alexsander</t>
+  </si>
+  <si>
+    <t>Alexsander Borges Sa ...</t>
+  </si>
+  <si>
+    <t>João Pedro de Sousa  ...</t>
+  </si>
+  <si>
+    <t>Niemisson Mendonça P ...</t>
+  </si>
+  <si>
+    <t>José Lussandro Souza Pereira Filho</t>
+  </si>
+  <si>
+    <t>29:00</t>
+  </si>
+  <si>
+    <t>36:00</t>
+  </si>
+  <si>
+    <t>Jeferson Daniel Prill Levkovisz</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>João Pedro de Sousa Fonseca Santana</t>
+  </si>
+  <si>
+    <t>19.01.2025</t>
+  </si>
+  <si>
+    <t>Ranilton Oliveira de Sousa</t>
+  </si>
+  <si>
+    <t>15 - Denilson Alves de Oliveira</t>
+  </si>
+  <si>
+    <t>10 - Ariel Robert da Silva Assuncao</t>
+  </si>
+  <si>
+    <t>7 - Bruno dos Santos Raposo</t>
+  </si>
+  <si>
+    <t>20 - Rodolfo Ribeiro Valadares Ne...</t>
+  </si>
+  <si>
+    <t>9 - Lucas Guilherme Santana Silva</t>
+  </si>
+  <si>
+    <t>16 - Adriano dos Santos Rodrigues</t>
+  </si>
+  <si>
+    <t>5 - Jardson de Jesus Magalhaes</t>
+  </si>
+  <si>
+    <t>15 - Antonio de Jesus da Silva Pe...</t>
+  </si>
+  <si>
+    <t>8 - Jair da Cruz Pilar</t>
+  </si>
+  <si>
+    <t>17 - João Henrique Lenger</t>
+  </si>
+  <si>
+    <t>7 - Douglas Martins da Silva</t>
+  </si>
+  <si>
+    <t>14 - Lucas Correa Ramos</t>
+  </si>
+  <si>
+    <t>8 - Luanderson Correa Meireles</t>
+  </si>
+  <si>
+    <t>JAMILSON</t>
+  </si>
+  <si>
+    <t>Jamilson Trindade Si ...</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>Caio Joserik Gaspar  ...</t>
+  </si>
+  <si>
+    <t>Mateus Jesus Martins ...</t>
+  </si>
+  <si>
+    <t>arisco</t>
+  </si>
+  <si>
+    <t>Bruno dos Santos Rap ...</t>
+  </si>
+  <si>
+    <t>LUANDERSO</t>
+  </si>
+  <si>
+    <t>Luanderson Correa Me ...</t>
+  </si>
+  <si>
+    <t>Lucas Vinicius Santo ...</t>
+  </si>
+  <si>
+    <t>MATEUS OLI .</t>
+  </si>
+  <si>
+    <t>Mateus Vinicius Sant ...</t>
+  </si>
+  <si>
+    <t>Ruan Pablo de Sousa  ...</t>
+  </si>
+  <si>
+    <t>Rodolfo</t>
+  </si>
+  <si>
+    <t>Rodolfo Ribeiro Vala ...</t>
+  </si>
+  <si>
+    <t>Bruno dos Santos Raposo</t>
+  </si>
+  <si>
+    <t>Brener Bessa Bezerra dos Santos</t>
+  </si>
+  <si>
+    <t>19:00</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -2088,6 +2241,12 @@
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2375,10 +2534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7CA54F-3F2D-4DC4-9242-0EAF8210CE31}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R248"/>
+  <dimension ref="A1:R326"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D227" workbookViewId="0">
-      <selection activeCell="I204" sqref="I204:R248"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292:A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14331,7 +14490,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="20.399999999999999">
+    <row r="182" spans="1:18" ht="30.6">
       <c r="A182" s="15">
         <v>5</v>
       </c>
@@ -14529,7 +14688,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="20.399999999999999">
+    <row r="185" spans="1:18" ht="30.6">
       <c r="A185" s="15">
         <v>5</v>
       </c>
@@ -14661,7 +14820,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="20.399999999999999">
+    <row r="187" spans="1:18" ht="30.6">
       <c r="A187" s="15">
         <v>5</v>
       </c>
@@ -14793,7 +14952,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="20.399999999999999">
+    <row r="189" spans="1:18" ht="30.6">
       <c r="A189" s="15">
         <v>5</v>
       </c>
@@ -14859,7 +15018,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="20.399999999999999">
+    <row r="190" spans="1:18" ht="30.6">
       <c r="A190" s="15">
         <v>5</v>
       </c>
@@ -15321,7 +15480,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="20.399999999999999">
+    <row r="197" spans="1:18" ht="30.6">
       <c r="A197" s="15">
         <v>5</v>
       </c>
@@ -15585,7 +15744,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="20.399999999999999">
+    <row r="201" spans="1:18" ht="30.6">
       <c r="A201" s="15">
         <v>5</v>
       </c>
@@ -15651,7 +15810,7 @@
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="20.399999999999999">
+    <row r="202" spans="1:18" ht="30.6">
       <c r="A202" s="15">
         <v>5</v>
       </c>
@@ -15915,7 +16074,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="30.6">
+    <row r="206" spans="1:18" ht="20.399999999999999">
       <c r="A206" s="15">
         <v>6</v>
       </c>
@@ -15981,7 +16140,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="30.6">
+    <row r="207" spans="1:18" ht="20.399999999999999">
       <c r="A207" s="15">
         <v>6</v>
       </c>
@@ -16245,7 +16404,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="30.6">
+    <row r="211" spans="1:18" ht="20.399999999999999">
       <c r="A211" s="15">
         <v>6</v>
       </c>
@@ -16311,7 +16470,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="30.6">
+    <row r="212" spans="1:18" ht="20.399999999999999">
       <c r="A212" s="15">
         <v>6</v>
       </c>
@@ -16509,7 +16668,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="30.6">
+    <row r="215" spans="1:18" ht="20.399999999999999">
       <c r="A215" s="15">
         <v>6</v>
       </c>
@@ -16641,7 +16800,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="30.6">
+    <row r="217" spans="1:18" ht="20.399999999999999">
       <c r="A217" s="15">
         <v>6</v>
       </c>
@@ -16773,7 +16932,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="30.6">
+    <row r="219" spans="1:18" ht="20.399999999999999">
       <c r="A219" s="15">
         <v>6</v>
       </c>
@@ -16839,7 +16998,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="30.6">
+    <row r="220" spans="1:18" ht="20.399999999999999">
       <c r="A220" s="15">
         <v>6</v>
       </c>
@@ -17037,7 +17196,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="30.6">
+    <row r="223" spans="1:18" ht="20.399999999999999">
       <c r="A223" s="15">
         <v>6</v>
       </c>
@@ -17301,7 +17460,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="30.6">
+    <row r="227" spans="1:18" ht="20.399999999999999">
       <c r="A227" s="15">
         <v>6</v>
       </c>
@@ -17433,7 +17592,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="30.6">
+    <row r="229" spans="1:18" ht="20.399999999999999">
       <c r="A229" s="15">
         <v>6</v>
       </c>
@@ -17499,7 +17658,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="30.6">
+    <row r="230" spans="1:18" ht="20.399999999999999">
       <c r="A230" s="15">
         <v>6</v>
       </c>
@@ -17697,7 +17856,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="30.6">
+    <row r="233" spans="1:18" ht="20.399999999999999">
       <c r="A233" s="15">
         <v>6</v>
       </c>
@@ -17961,7 +18120,7 @@
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="30.6">
+    <row r="237" spans="1:18" ht="20.399999999999999">
       <c r="A237" s="15">
         <v>6</v>
       </c>
@@ -18751,6 +18910,5154 @@
       <c r="R248" s="28" t="str">
         <f>VLOOKUP(A248,'JOGOS BASE'!A:H,8)</f>
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" ht="20.399999999999999">
+      <c r="A249" s="15">
+        <v>7</v>
+      </c>
+      <c r="B249" s="46">
+        <v>1</v>
+      </c>
+      <c r="C249" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E249" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G249" s="46">
+        <v>459328</v>
+      </c>
+      <c r="H249" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I249" s="26" t="str">
+        <f t="shared" ref="I249:I290" si="30">C249</f>
+        <v>Jr Conceiç ...</v>
+      </c>
+      <c r="J249" s="26" t="str">
+        <f t="shared" ref="J249:J290" si="31">A249&amp;H249&amp;B249</f>
+        <v>7Imperatriz - MA1</v>
+      </c>
+      <c r="K249" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J249,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L249" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J249,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M249" s="28" t="b">
+        <f t="shared" ref="M249:M290" si="32">K249=L249</f>
+        <v>1</v>
+      </c>
+      <c r="N249" s="29">
+        <f>IF(AND(K249=L249,LEFT(E249,1)="T"),VLOOKUP(A249,'JOGOS BASE'!A:E,4,0),IF(K249=J249,VLOOKUP(J249,Substituicoes!J:R,6,0),IF(L249=J249,VLOOKUP(Escalacao!J249,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O249" s="28">
+        <f>IF(AND(K249=L249,LEFT(E249,1)="T"),VLOOKUP(A249,'JOGOS BASE'!A:E,5,0),IF(K249=J249,VLOOKUP(J249,Substituicoes!J:R,7,0),IF(L249=J249,VLOOKUP(Escalacao!J249,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P249" s="28">
+        <f t="shared" ref="P249:P290" si="33">N249+O249</f>
+        <v>99</v>
+      </c>
+      <c r="Q249" s="28" t="str">
+        <f t="shared" ref="Q249:Q290" si="34">A249&amp;B249&amp;H249</f>
+        <v>71Imperatriz - MA</v>
+      </c>
+      <c r="R249" s="28" t="str">
+        <f>VLOOKUP(A249,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" ht="30.6">
+      <c r="A250" s="15">
+        <v>7</v>
+      </c>
+      <c r="B250" s="46">
+        <v>2</v>
+      </c>
+      <c r="C250" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D250" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F250" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G250" s="46">
+        <v>451402</v>
+      </c>
+      <c r="H250" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I250" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Fabricio</v>
+      </c>
+      <c r="J250" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA2</v>
+      </c>
+      <c r="K250" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J250,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L250" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J250,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M250" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N250" s="29">
+        <f>IF(AND(K250=L250,LEFT(E250,1)="T"),VLOOKUP(A250,'JOGOS BASE'!A:E,4,0),IF(K250=J250,VLOOKUP(J250,Substituicoes!J:R,6,0),IF(L250=J250,VLOOKUP(Escalacao!J250,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O250" s="28">
+        <f>IF(AND(K250=L250,LEFT(E250,1)="T"),VLOOKUP(A250,'JOGOS BASE'!A:E,5,0),IF(K250=J250,VLOOKUP(J250,Substituicoes!J:R,7,0),IF(L250=J250,VLOOKUP(Escalacao!J250,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P250" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q250" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>72Imperatriz - MA</v>
+      </c>
+      <c r="R250" s="28" t="str">
+        <f>VLOOKUP(A250,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" ht="20.399999999999999">
+      <c r="A251" s="15">
+        <v>7</v>
+      </c>
+      <c r="B251" s="46">
+        <v>3</v>
+      </c>
+      <c r="C251" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D251" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F251" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G251" s="46">
+        <v>393115</v>
+      </c>
+      <c r="H251" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I251" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Andre Penalva</v>
+      </c>
+      <c r="J251" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA3</v>
+      </c>
+      <c r="K251" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J251,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L251" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J251,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Imperatriz - MA3</v>
+      </c>
+      <c r="M251" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N251" s="29">
+        <f>IF(AND(K251=L251,LEFT(E251,1)="T"),VLOOKUP(A251,'JOGOS BASE'!A:E,4,0),IF(K251=J251,VLOOKUP(J251,Substituicoes!J:R,6,0),IF(L251=J251,VLOOKUP(Escalacao!J251,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O251" s="28">
+        <f>IF(AND(K251=L251,LEFT(E251,1)="T"),VLOOKUP(A251,'JOGOS BASE'!A:E,5,0),IF(K251=J251,VLOOKUP(J251,Substituicoes!J:R,7,0),IF(L251=J251,VLOOKUP(Escalacao!J251,Substituicoes!K:R,8,0),0)))</f>
+        <v>30</v>
+      </c>
+      <c r="P251" s="28">
+        <f t="shared" si="33"/>
+        <v>78</v>
+      </c>
+      <c r="Q251" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>73Imperatriz - MA</v>
+      </c>
+      <c r="R251" s="28" t="str">
+        <f>VLOOKUP(A251,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" ht="20.399999999999999">
+      <c r="A252" s="15">
+        <v>7</v>
+      </c>
+      <c r="B252" s="46">
+        <v>4</v>
+      </c>
+      <c r="C252" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F252" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G252" s="46">
+        <v>373479</v>
+      </c>
+      <c r="H252" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I252" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>FELIPE</v>
+      </c>
+      <c r="J252" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA4</v>
+      </c>
+      <c r="K252" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J252,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L252" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J252,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M252" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N252" s="29">
+        <f>IF(AND(K252=L252,LEFT(E252,1)="T"),VLOOKUP(A252,'JOGOS BASE'!A:E,4,0),IF(K252=J252,VLOOKUP(J252,Substituicoes!J:R,6,0),IF(L252=J252,VLOOKUP(Escalacao!J252,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O252" s="28">
+        <f>IF(AND(K252=L252,LEFT(E252,1)="T"),VLOOKUP(A252,'JOGOS BASE'!A:E,5,0),IF(K252=J252,VLOOKUP(J252,Substituicoes!J:R,7,0),IF(L252=J252,VLOOKUP(Escalacao!J252,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P252" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q252" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>74Imperatriz - MA</v>
+      </c>
+      <c r="R252" s="28" t="str">
+        <f>VLOOKUP(A252,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" ht="30.6">
+      <c r="A253" s="15">
+        <v>7</v>
+      </c>
+      <c r="B253" s="46">
+        <v>5</v>
+      </c>
+      <c r="C253" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F253" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G253" s="46">
+        <v>345029</v>
+      </c>
+      <c r="H253" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I253" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Jeferson P ...</v>
+      </c>
+      <c r="J253" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA5</v>
+      </c>
+      <c r="K253" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J253,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L253" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J253,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Imperatriz - MA5</v>
+      </c>
+      <c r="M253" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N253" s="29">
+        <f>IF(AND(K253=L253,LEFT(E253,1)="T"),VLOOKUP(A253,'JOGOS BASE'!A:E,4,0),IF(K253=J253,VLOOKUP(J253,Substituicoes!J:R,6,0),IF(L253=J253,VLOOKUP(Escalacao!J253,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O253" s="28">
+        <f>IF(AND(K253=L253,LEFT(E253,1)="T"),VLOOKUP(A253,'JOGOS BASE'!A:E,5,0),IF(K253=J253,VLOOKUP(J253,Substituicoes!J:R,7,0),IF(L253=J253,VLOOKUP(Escalacao!J253,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P253" s="28">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="Q253" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>75Imperatriz - MA</v>
+      </c>
+      <c r="R253" s="28" t="str">
+        <f>VLOOKUP(A253,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" ht="30.6">
+      <c r="A254" s="15">
+        <v>7</v>
+      </c>
+      <c r="B254" s="46">
+        <v>6</v>
+      </c>
+      <c r="C254" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D254" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E254" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F254" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G254" s="46">
+        <v>634279</v>
+      </c>
+      <c r="H254" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I254" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Negueba</v>
+      </c>
+      <c r="J254" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA6</v>
+      </c>
+      <c r="K254" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J254,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L254" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J254,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M254" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N254" s="29">
+        <f>IF(AND(K254=L254,LEFT(E254,1)="T"),VLOOKUP(A254,'JOGOS BASE'!A:E,4,0),IF(K254=J254,VLOOKUP(J254,Substituicoes!J:R,6,0),IF(L254=J254,VLOOKUP(Escalacao!J254,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O254" s="28">
+        <f>IF(AND(K254=L254,LEFT(E254,1)="T"),VLOOKUP(A254,'JOGOS BASE'!A:E,5,0),IF(K254=J254,VLOOKUP(J254,Substituicoes!J:R,7,0),IF(L254=J254,VLOOKUP(Escalacao!J254,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P254" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q254" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>76Imperatriz - MA</v>
+      </c>
+      <c r="R254" s="28" t="str">
+        <f>VLOOKUP(A254,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="30.6">
+      <c r="A255" s="15">
+        <v>7</v>
+      </c>
+      <c r="B255" s="46">
+        <v>7</v>
+      </c>
+      <c r="C255" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="D255" s="45" t="s">
+        <v>570</v>
+      </c>
+      <c r="E255" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F255" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G255" s="46">
+        <v>644343</v>
+      </c>
+      <c r="H255" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I255" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>WESLLEY</v>
+      </c>
+      <c r="J255" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA7</v>
+      </c>
+      <c r="K255" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J255,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L255" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J255,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M255" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N255" s="29">
+        <f>IF(AND(K255=L255,LEFT(E255,1)="T"),VLOOKUP(A255,'JOGOS BASE'!A:E,4,0),IF(K255=J255,VLOOKUP(J255,Substituicoes!J:R,6,0),IF(L255=J255,VLOOKUP(Escalacao!J255,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O255" s="28">
+        <f>IF(AND(K255=L255,LEFT(E255,1)="T"),VLOOKUP(A255,'JOGOS BASE'!A:E,5,0),IF(K255=J255,VLOOKUP(J255,Substituicoes!J:R,7,0),IF(L255=J255,VLOOKUP(Escalacao!J255,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P255" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q255" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>77Imperatriz - MA</v>
+      </c>
+      <c r="R255" s="28" t="str">
+        <f>VLOOKUP(A255,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="30.6">
+      <c r="A256" s="15">
+        <v>7</v>
+      </c>
+      <c r="B256" s="46">
+        <v>8</v>
+      </c>
+      <c r="C256" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F256" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G256" s="46">
+        <v>348355</v>
+      </c>
+      <c r="H256" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I256" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Felipe Macena</v>
+      </c>
+      <c r="J256" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA8</v>
+      </c>
+      <c r="K256" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J256,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L256" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J256,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M256" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N256" s="29">
+        <f>IF(AND(K256=L256,LEFT(E256,1)="T"),VLOOKUP(A256,'JOGOS BASE'!A:E,4,0),IF(K256=J256,VLOOKUP(J256,Substituicoes!J:R,6,0),IF(L256=J256,VLOOKUP(Escalacao!J256,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O256" s="28">
+        <f>IF(AND(K256=L256,LEFT(E256,1)="T"),VLOOKUP(A256,'JOGOS BASE'!A:E,5,0),IF(K256=J256,VLOOKUP(J256,Substituicoes!J:R,7,0),IF(L256=J256,VLOOKUP(Escalacao!J256,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P256" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q256" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>78Imperatriz - MA</v>
+      </c>
+      <c r="R256" s="28" t="str">
+        <f>VLOOKUP(A256,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="30.6">
+      <c r="A257" s="15">
+        <v>7</v>
+      </c>
+      <c r="B257" s="46">
+        <v>9</v>
+      </c>
+      <c r="C257" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E257" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F257" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G257" s="46">
+        <v>637641</v>
+      </c>
+      <c r="H257" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I257" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Lussandro</v>
+      </c>
+      <c r="J257" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA9</v>
+      </c>
+      <c r="K257" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J257,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L257" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J257,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Imperatriz - MA9</v>
+      </c>
+      <c r="M257" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N257" s="29">
+        <f>IF(AND(K257=L257,LEFT(E257,1)="T"),VLOOKUP(A257,'JOGOS BASE'!A:E,4,0),IF(K257=J257,VLOOKUP(J257,Substituicoes!J:R,6,0),IF(L257=J257,VLOOKUP(Escalacao!J257,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O257" s="28">
+        <f>IF(AND(K257=L257,LEFT(E257,1)="T"),VLOOKUP(A257,'JOGOS BASE'!A:E,5,0),IF(K257=J257,VLOOKUP(J257,Substituicoes!J:R,7,0),IF(L257=J257,VLOOKUP(Escalacao!J257,Substituicoes!K:R,8,0),0)))</f>
+        <v>24</v>
+      </c>
+      <c r="P257" s="28">
+        <f t="shared" si="33"/>
+        <v>72</v>
+      </c>
+      <c r="Q257" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>79Imperatriz - MA</v>
+      </c>
+      <c r="R257" s="28" t="str">
+        <f>VLOOKUP(A257,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" ht="30.6">
+      <c r="A258" s="15">
+        <v>7</v>
+      </c>
+      <c r="B258" s="46">
+        <v>10</v>
+      </c>
+      <c r="C258" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D258" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E258" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F258" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G258" s="46">
+        <v>293426</v>
+      </c>
+      <c r="H258" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I258" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Henrique S ...</v>
+      </c>
+      <c r="J258" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA10</v>
+      </c>
+      <c r="K258" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J258,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L258" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J258,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Imperatriz - MA10</v>
+      </c>
+      <c r="M258" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N258" s="29">
+        <f>IF(AND(K258=L258,LEFT(E258,1)="T"),VLOOKUP(A258,'JOGOS BASE'!A:E,4,0),IF(K258=J258,VLOOKUP(J258,Substituicoes!J:R,6,0),IF(L258=J258,VLOOKUP(Escalacao!J258,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O258" s="28">
+        <f>IF(AND(K258=L258,LEFT(E258,1)="T"),VLOOKUP(A258,'JOGOS BASE'!A:E,5,0),IF(K258=J258,VLOOKUP(J258,Substituicoes!J:R,7,0),IF(L258=J258,VLOOKUP(Escalacao!J258,Substituicoes!K:R,8,0),0)))</f>
+        <v>30</v>
+      </c>
+      <c r="P258" s="28">
+        <f t="shared" si="33"/>
+        <v>78</v>
+      </c>
+      <c r="Q258" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>710Imperatriz - MA</v>
+      </c>
+      <c r="R258" s="28" t="str">
+        <f>VLOOKUP(A258,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" ht="20.399999999999999">
+      <c r="A259" s="15">
+        <v>7</v>
+      </c>
+      <c r="B259" s="46">
+        <v>19</v>
+      </c>
+      <c r="C259" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E259" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F259" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G259" s="46">
+        <v>386286</v>
+      </c>
+      <c r="H259" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I259" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Café</v>
+      </c>
+      <c r="J259" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA19</v>
+      </c>
+      <c r="K259" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J259,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L259" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J259,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Imperatriz - MA19</v>
+      </c>
+      <c r="M259" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N259" s="29">
+        <f>IF(AND(K259=L259,LEFT(E259,1)="T"),VLOOKUP(A259,'JOGOS BASE'!A:E,4,0),IF(K259=J259,VLOOKUP(J259,Substituicoes!J:R,6,0),IF(L259=J259,VLOOKUP(Escalacao!J259,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O259" s="28">
+        <f>IF(AND(K259=L259,LEFT(E259,1)="T"),VLOOKUP(A259,'JOGOS BASE'!A:E,5,0),IF(K259=J259,VLOOKUP(J259,Substituicoes!J:R,7,0),IF(L259=J259,VLOOKUP(Escalacao!J259,Substituicoes!K:R,8,0),0)))</f>
+        <v>24</v>
+      </c>
+      <c r="P259" s="28">
+        <f t="shared" si="33"/>
+        <v>72</v>
+      </c>
+      <c r="Q259" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>719Imperatriz - MA</v>
+      </c>
+      <c r="R259" s="28" t="str">
+        <f>VLOOKUP(A259,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" ht="30.6">
+      <c r="A260" s="15">
+        <v>7</v>
+      </c>
+      <c r="B260" s="46">
+        <v>12</v>
+      </c>
+      <c r="C260" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E260" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F260" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G260" s="46">
+        <v>426518</v>
+      </c>
+      <c r="H260" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I260" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Redson</v>
+      </c>
+      <c r="J260" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA12</v>
+      </c>
+      <c r="K260" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J260,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L260" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J260,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M260" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N260" s="29">
+        <f>IF(AND(K260=L260,LEFT(E260,1)="T"),VLOOKUP(A260,'JOGOS BASE'!A:E,4,0),IF(K260=J260,VLOOKUP(J260,Substituicoes!J:R,6,0),IF(L260=J260,VLOOKUP(Escalacao!J260,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O260" s="28">
+        <f>IF(AND(K260=L260,LEFT(E260,1)="T"),VLOOKUP(A260,'JOGOS BASE'!A:E,5,0),IF(K260=J260,VLOOKUP(J260,Substituicoes!J:R,7,0),IF(L260=J260,VLOOKUP(Escalacao!J260,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P260" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q260" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>712Imperatriz - MA</v>
+      </c>
+      <c r="R260" s="28" t="str">
+        <f>VLOOKUP(A260,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" ht="30.6">
+      <c r="A261" s="15">
+        <v>7</v>
+      </c>
+      <c r="B261" s="46">
+        <v>11</v>
+      </c>
+      <c r="C261" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D261" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E261" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F261" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G261" s="46">
+        <v>611147</v>
+      </c>
+      <c r="H261" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I261" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>WYLDSON</v>
+      </c>
+      <c r="J261" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA11</v>
+      </c>
+      <c r="K261" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J261,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Imperatriz - MA11</v>
+      </c>
+      <c r="L261" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J261,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M261" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N261" s="29">
+        <f>IF(AND(K261=L261,LEFT(E261,1)="T"),VLOOKUP(A261,'JOGOS BASE'!A:E,4,0),IF(K261=J261,VLOOKUP(J261,Substituicoes!J:R,6,0),IF(L261=J261,VLOOKUP(Escalacao!J261,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O261" s="28">
+        <f>IF(AND(K261=L261,LEFT(E261,1)="T"),VLOOKUP(A261,'JOGOS BASE'!A:E,5,0),IF(K261=J261,VLOOKUP(J261,Substituicoes!J:R,7,0),IF(L261=J261,VLOOKUP(Escalacao!J261,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P261" s="28">
+        <f t="shared" si="33"/>
+        <v>51</v>
+      </c>
+      <c r="Q261" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>711Imperatriz - MA</v>
+      </c>
+      <c r="R261" s="28" t="str">
+        <f>VLOOKUP(A261,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" ht="30.6">
+      <c r="A262" s="15">
+        <v>7</v>
+      </c>
+      <c r="B262" s="46">
+        <v>13</v>
+      </c>
+      <c r="C262" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D262" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E262" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F262" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G262" s="46">
+        <v>782606</v>
+      </c>
+      <c r="H262" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I262" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Raylson</v>
+      </c>
+      <c r="J262" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA13</v>
+      </c>
+      <c r="K262" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J262,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Imperatriz - MA13</v>
+      </c>
+      <c r="L262" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J262,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M262" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N262" s="29">
+        <f>IF(AND(K262=L262,LEFT(E262,1)="T"),VLOOKUP(A262,'JOGOS BASE'!A:E,4,0),IF(K262=J262,VLOOKUP(J262,Substituicoes!J:R,6,0),IF(L262=J262,VLOOKUP(Escalacao!J262,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O262" s="28">
+        <f>IF(AND(K262=L262,LEFT(E262,1)="T"),VLOOKUP(A262,'JOGOS BASE'!A:E,5,0),IF(K262=J262,VLOOKUP(J262,Substituicoes!J:R,7,0),IF(L262=J262,VLOOKUP(Escalacao!J262,Substituicoes!K:R,8,0),0)))</f>
+        <v>21</v>
+      </c>
+      <c r="P262" s="28">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="Q262" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>713Imperatriz - MA</v>
+      </c>
+      <c r="R262" s="28" t="str">
+        <f>VLOOKUP(A262,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" ht="30.6">
+      <c r="A263" s="15">
+        <v>7</v>
+      </c>
+      <c r="B263" s="46">
+        <v>14</v>
+      </c>
+      <c r="C263" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="D263" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="E263" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F263" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G263" s="46">
+        <v>300045</v>
+      </c>
+      <c r="H263" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I263" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Gleidson</v>
+      </c>
+      <c r="J263" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA14</v>
+      </c>
+      <c r="K263" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J263,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Imperatriz - MA14</v>
+      </c>
+      <c r="L263" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J263,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M263" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N263" s="29">
+        <f>IF(AND(K263=L263,LEFT(E263,1)="T"),VLOOKUP(A263,'JOGOS BASE'!A:E,4,0),IF(K263=J263,VLOOKUP(J263,Substituicoes!J:R,6,0),IF(L263=J263,VLOOKUP(Escalacao!J263,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O263" s="28">
+        <f>IF(AND(K263=L263,LEFT(E263,1)="T"),VLOOKUP(A263,'JOGOS BASE'!A:E,5,0),IF(K263=J263,VLOOKUP(J263,Substituicoes!J:R,7,0),IF(L263=J263,VLOOKUP(Escalacao!J263,Substituicoes!K:R,8,0),0)))</f>
+        <v>21</v>
+      </c>
+      <c r="P263" s="28">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="Q263" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>714Imperatriz - MA</v>
+      </c>
+      <c r="R263" s="28" t="str">
+        <f>VLOOKUP(A263,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" ht="30.6">
+      <c r="A264" s="15">
+        <v>7</v>
+      </c>
+      <c r="B264" s="46">
+        <v>15</v>
+      </c>
+      <c r="C264" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D264" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E264" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F264" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G264" s="46">
+        <v>500483</v>
+      </c>
+      <c r="H264" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I264" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>CARLOS</v>
+      </c>
+      <c r="J264" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA15</v>
+      </c>
+      <c r="K264" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J264,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L264" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J264,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M264" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N264" s="29">
+        <f>IF(AND(K264=L264,LEFT(E264,1)="T"),VLOOKUP(A264,'JOGOS BASE'!A:E,4,0),IF(K264=J264,VLOOKUP(J264,Substituicoes!J:R,6,0),IF(L264=J264,VLOOKUP(Escalacao!J264,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O264" s="28">
+        <f>IF(AND(K264=L264,LEFT(E264,1)="T"),VLOOKUP(A264,'JOGOS BASE'!A:E,5,0),IF(K264=J264,VLOOKUP(J264,Substituicoes!J:R,7,0),IF(L264=J264,VLOOKUP(Escalacao!J264,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P264" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q264" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>715Imperatriz - MA</v>
+      </c>
+      <c r="R264" s="28" t="str">
+        <f>VLOOKUP(A264,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" ht="20.399999999999999">
+      <c r="A265" s="15">
+        <v>7</v>
+      </c>
+      <c r="B265" s="46">
+        <v>16</v>
+      </c>
+      <c r="C265" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D265" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="E265" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F265" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G265" s="46">
+        <v>651714</v>
+      </c>
+      <c r="H265" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I265" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>GUSTAVO LI</v>
+      </c>
+      <c r="J265" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA16</v>
+      </c>
+      <c r="K265" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J265,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L265" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J265,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M265" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N265" s="29">
+        <f>IF(AND(K265=L265,LEFT(E265,1)="T"),VLOOKUP(A265,'JOGOS BASE'!A:E,4,0),IF(K265=J265,VLOOKUP(J265,Substituicoes!J:R,6,0),IF(L265=J265,VLOOKUP(Escalacao!J265,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O265" s="28">
+        <f>IF(AND(K265=L265,LEFT(E265,1)="T"),VLOOKUP(A265,'JOGOS BASE'!A:E,5,0),IF(K265=J265,VLOOKUP(J265,Substituicoes!J:R,7,0),IF(L265=J265,VLOOKUP(Escalacao!J265,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P265" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q265" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>716Imperatriz - MA</v>
+      </c>
+      <c r="R265" s="28" t="str">
+        <f>VLOOKUP(A265,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" ht="30.6">
+      <c r="A266" s="15">
+        <v>7</v>
+      </c>
+      <c r="B266" s="46">
+        <v>17</v>
+      </c>
+      <c r="C266" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E266" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F266" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G266" s="46">
+        <v>647823</v>
+      </c>
+      <c r="H266" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I266" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Pedro Zuccolo</v>
+      </c>
+      <c r="J266" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA17</v>
+      </c>
+      <c r="K266" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J266,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L266" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J266,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M266" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N266" s="29">
+        <f>IF(AND(K266=L266,LEFT(E266,1)="T"),VLOOKUP(A266,'JOGOS BASE'!A:E,4,0),IF(K266=J266,VLOOKUP(J266,Substituicoes!J:R,6,0),IF(L266=J266,VLOOKUP(Escalacao!J266,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O266" s="28">
+        <f>IF(AND(K266=L266,LEFT(E266,1)="T"),VLOOKUP(A266,'JOGOS BASE'!A:E,5,0),IF(K266=J266,VLOOKUP(J266,Substituicoes!J:R,7,0),IF(L266=J266,VLOOKUP(Escalacao!J266,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P266" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q266" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>717Imperatriz - MA</v>
+      </c>
+      <c r="R266" s="28" t="str">
+        <f>VLOOKUP(A266,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" ht="30.6">
+      <c r="A267" s="15">
+        <v>7</v>
+      </c>
+      <c r="B267" s="46">
+        <v>18</v>
+      </c>
+      <c r="C267" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="D267" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E267" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F267" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G267" s="46">
+        <v>179773</v>
+      </c>
+      <c r="H267" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I267" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Rafael Gra ...</v>
+      </c>
+      <c r="J267" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA18</v>
+      </c>
+      <c r="K267" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J267,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L267" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J267,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M267" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N267" s="29">
+        <f>IF(AND(K267=L267,LEFT(E267,1)="T"),VLOOKUP(A267,'JOGOS BASE'!A:E,4,0),IF(K267=J267,VLOOKUP(J267,Substituicoes!J:R,6,0),IF(L267=J267,VLOOKUP(Escalacao!J267,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O267" s="28">
+        <f>IF(AND(K267=L267,LEFT(E267,1)="T"),VLOOKUP(A267,'JOGOS BASE'!A:E,5,0),IF(K267=J267,VLOOKUP(J267,Substituicoes!J:R,7,0),IF(L267=J267,VLOOKUP(Escalacao!J267,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P267" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q267" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>718Imperatriz - MA</v>
+      </c>
+      <c r="R267" s="28" t="str">
+        <f>VLOOKUP(A267,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" ht="30.6">
+      <c r="A268" s="15">
+        <v>7</v>
+      </c>
+      <c r="B268" s="46">
+        <v>20</v>
+      </c>
+      <c r="C268" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D268" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E268" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F268" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G268" s="46">
+        <v>753179</v>
+      </c>
+      <c r="H268" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I268" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Xinayder</v>
+      </c>
+      <c r="J268" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA20</v>
+      </c>
+      <c r="K268" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J268,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L268" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J268,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M268" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N268" s="29">
+        <f>IF(AND(K268=L268,LEFT(E268,1)="T"),VLOOKUP(A268,'JOGOS BASE'!A:E,4,0),IF(K268=J268,VLOOKUP(J268,Substituicoes!J:R,6,0),IF(L268=J268,VLOOKUP(Escalacao!J268,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O268" s="28">
+        <f>IF(AND(K268=L268,LEFT(E268,1)="T"),VLOOKUP(A268,'JOGOS BASE'!A:E,5,0),IF(K268=J268,VLOOKUP(J268,Substituicoes!J:R,7,0),IF(L268=J268,VLOOKUP(Escalacao!J268,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P268" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q268" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>720Imperatriz - MA</v>
+      </c>
+      <c r="R268" s="28" t="str">
+        <f>VLOOKUP(A268,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" ht="30.6">
+      <c r="A269" s="15">
+        <v>7</v>
+      </c>
+      <c r="B269" s="46">
+        <v>21</v>
+      </c>
+      <c r="C269" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D269" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E269" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F269" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G269" s="46">
+        <v>762553</v>
+      </c>
+      <c r="H269" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I269" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>ADRIAN</v>
+      </c>
+      <c r="J269" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA21</v>
+      </c>
+      <c r="K269" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J269,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Imperatriz - MA21</v>
+      </c>
+      <c r="L269" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J269,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M269" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N269" s="29">
+        <f>IF(AND(K269=L269,LEFT(E269,1)="T"),VLOOKUP(A269,'JOGOS BASE'!A:E,4,0),IF(K269=J269,VLOOKUP(J269,Substituicoes!J:R,6,0),IF(L269=J269,VLOOKUP(Escalacao!J269,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O269" s="28">
+        <f>IF(AND(K269=L269,LEFT(E269,1)="T"),VLOOKUP(A269,'JOGOS BASE'!A:E,5,0),IF(K269=J269,VLOOKUP(J269,Substituicoes!J:R,7,0),IF(L269=J269,VLOOKUP(Escalacao!J269,Substituicoes!K:R,8,0),0)))</f>
+        <v>27</v>
+      </c>
+      <c r="P269" s="28">
+        <f t="shared" si="33"/>
+        <v>27</v>
+      </c>
+      <c r="Q269" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>721Imperatriz - MA</v>
+      </c>
+      <c r="R269" s="28" t="str">
+        <f>VLOOKUP(A269,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" ht="30.6">
+      <c r="A270" s="15">
+        <v>7</v>
+      </c>
+      <c r="B270" s="46">
+        <v>22</v>
+      </c>
+      <c r="C270" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D270" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E270" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F270" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G270" s="46">
+        <v>762150</v>
+      </c>
+      <c r="H270" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I270" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Junior</v>
+      </c>
+      <c r="J270" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA22</v>
+      </c>
+      <c r="K270" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J270,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Imperatriz - MA22</v>
+      </c>
+      <c r="L270" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J270,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M270" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N270" s="29">
+        <f>IF(AND(K270=L270,LEFT(E270,1)="T"),VLOOKUP(A270,'JOGOS BASE'!A:E,4,0),IF(K270=J270,VLOOKUP(J270,Substituicoes!J:R,6,0),IF(L270=J270,VLOOKUP(Escalacao!J270,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O270" s="28">
+        <f>IF(AND(K270=L270,LEFT(E270,1)="T"),VLOOKUP(A270,'JOGOS BASE'!A:E,5,0),IF(K270=J270,VLOOKUP(J270,Substituicoes!J:R,7,0),IF(L270=J270,VLOOKUP(Escalacao!J270,Substituicoes!K:R,8,0),0)))</f>
+        <v>27</v>
+      </c>
+      <c r="P270" s="28">
+        <f t="shared" si="33"/>
+        <v>27</v>
+      </c>
+      <c r="Q270" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>722Imperatriz - MA</v>
+      </c>
+      <c r="R270" s="28" t="str">
+        <f>VLOOKUP(A270,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" ht="30.6">
+      <c r="A271" s="15">
+        <v>7</v>
+      </c>
+      <c r="B271" s="46">
+        <v>23</v>
+      </c>
+      <c r="C271" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="D271" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="E271" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F271" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G271" s="46">
+        <v>798027</v>
+      </c>
+      <c r="H271" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I271" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Alexsander</v>
+      </c>
+      <c r="J271" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Imperatriz - MA23</v>
+      </c>
+      <c r="K271" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J271,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L271" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J271,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M271" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N271" s="29">
+        <f>IF(AND(K271=L271,LEFT(E271,1)="T"),VLOOKUP(A271,'JOGOS BASE'!A:E,4,0),IF(K271=J271,VLOOKUP(J271,Substituicoes!J:R,6,0),IF(L271=J271,VLOOKUP(Escalacao!J271,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O271" s="28">
+        <f>IF(AND(K271=L271,LEFT(E271,1)="T"),VLOOKUP(A271,'JOGOS BASE'!A:E,5,0),IF(K271=J271,VLOOKUP(J271,Substituicoes!J:R,7,0),IF(L271=J271,VLOOKUP(Escalacao!J271,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P271" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q271" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>723Imperatriz - MA</v>
+      </c>
+      <c r="R271" s="28" t="str">
+        <f>VLOOKUP(A271,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" ht="30.6">
+      <c r="A272" s="15">
+        <v>7</v>
+      </c>
+      <c r="B272" s="46">
+        <v>1</v>
+      </c>
+      <c r="C272" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D272" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E272" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F272" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G272" s="46">
+        <v>530809</v>
+      </c>
+      <c r="H272" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I272" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Mateus</v>
+      </c>
+      <c r="J272" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA1</v>
+      </c>
+      <c r="K272" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J272,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L272" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J272,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M272" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N272" s="29">
+        <f>IF(AND(K272=L272,LEFT(E272,1)="T"),VLOOKUP(A272,'JOGOS BASE'!A:E,4,0),IF(K272=J272,VLOOKUP(J272,Substituicoes!J:R,6,0),IF(L272=J272,VLOOKUP(Escalacao!J272,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O272" s="28">
+        <f>IF(AND(K272=L272,LEFT(E272,1)="T"),VLOOKUP(A272,'JOGOS BASE'!A:E,5,0),IF(K272=J272,VLOOKUP(J272,Substituicoes!J:R,7,0),IF(L272=J272,VLOOKUP(Escalacao!J272,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P272" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q272" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>71Pinheiro - MA</v>
+      </c>
+      <c r="R272" s="28" t="str">
+        <f>VLOOKUP(A272,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" ht="20.399999999999999">
+      <c r="A273" s="15">
+        <v>7</v>
+      </c>
+      <c r="B273" s="46">
+        <v>2</v>
+      </c>
+      <c r="C273" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D273" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="E273" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F273" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G273" s="46">
+        <v>748495</v>
+      </c>
+      <c r="H273" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I273" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Italo</v>
+      </c>
+      <c r="J273" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA2</v>
+      </c>
+      <c r="K273" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J273,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L273" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J273,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M273" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N273" s="29">
+        <f>IF(AND(K273=L273,LEFT(E273,1)="T"),VLOOKUP(A273,'JOGOS BASE'!A:E,4,0),IF(K273=J273,VLOOKUP(J273,Substituicoes!J:R,6,0),IF(L273=J273,VLOOKUP(Escalacao!J273,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O273" s="28">
+        <f>IF(AND(K273=L273,LEFT(E273,1)="T"),VLOOKUP(A273,'JOGOS BASE'!A:E,5,0),IF(K273=J273,VLOOKUP(J273,Substituicoes!J:R,7,0),IF(L273=J273,VLOOKUP(Escalacao!J273,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P273" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q273" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>72Pinheiro - MA</v>
+      </c>
+      <c r="R273" s="28" t="str">
+        <f>VLOOKUP(A273,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" ht="30.6">
+      <c r="A274" s="15">
+        <v>7</v>
+      </c>
+      <c r="B274" s="46">
+        <v>3</v>
+      </c>
+      <c r="C274" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D274" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E274" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F274" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G274" s="46">
+        <v>619339</v>
+      </c>
+      <c r="H274" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I274" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Henrique</v>
+      </c>
+      <c r="J274" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA3</v>
+      </c>
+      <c r="K274" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J274,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L274" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J274,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M274" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N274" s="29">
+        <f>IF(AND(K274=L274,LEFT(E274,1)="T"),VLOOKUP(A274,'JOGOS BASE'!A:E,4,0),IF(K274=J274,VLOOKUP(J274,Substituicoes!J:R,6,0),IF(L274=J274,VLOOKUP(Escalacao!J274,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O274" s="28">
+        <f>IF(AND(K274=L274,LEFT(E274,1)="T"),VLOOKUP(A274,'JOGOS BASE'!A:E,5,0),IF(K274=J274,VLOOKUP(J274,Substituicoes!J:R,7,0),IF(L274=J274,VLOOKUP(Escalacao!J274,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P274" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q274" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>73Pinheiro - MA</v>
+      </c>
+      <c r="R274" s="28" t="str">
+        <f>VLOOKUP(A274,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" ht="30.6">
+      <c r="A275" s="15">
+        <v>7</v>
+      </c>
+      <c r="B275" s="46">
+        <v>4</v>
+      </c>
+      <c r="C275" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D275" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="E275" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F275" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G275" s="46">
+        <v>710616</v>
+      </c>
+      <c r="H275" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I275" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Rikelmmer</v>
+      </c>
+      <c r="J275" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA4</v>
+      </c>
+      <c r="K275" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J275,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L275" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J275,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M275" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N275" s="29">
+        <f>IF(AND(K275=L275,LEFT(E275,1)="T"),VLOOKUP(A275,'JOGOS BASE'!A:E,4,0),IF(K275=J275,VLOOKUP(J275,Substituicoes!J:R,6,0),IF(L275=J275,VLOOKUP(Escalacao!J275,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O275" s="28">
+        <f>IF(AND(K275=L275,LEFT(E275,1)="T"),VLOOKUP(A275,'JOGOS BASE'!A:E,5,0),IF(K275=J275,VLOOKUP(J275,Substituicoes!J:R,7,0),IF(L275=J275,VLOOKUP(Escalacao!J275,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P275" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q275" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>74Pinheiro - MA</v>
+      </c>
+      <c r="R275" s="28" t="str">
+        <f>VLOOKUP(A275,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" ht="20.399999999999999">
+      <c r="A276" s="15">
+        <v>7</v>
+      </c>
+      <c r="B276" s="46">
+        <v>5</v>
+      </c>
+      <c r="C276" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D276" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="E276" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F276" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G276" s="46">
+        <v>537343</v>
+      </c>
+      <c r="H276" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I276" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Rayandeson</v>
+      </c>
+      <c r="J276" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA5</v>
+      </c>
+      <c r="K276" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J276,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L276" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J276,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M276" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N276" s="29">
+        <f>IF(AND(K276=L276,LEFT(E276,1)="T"),VLOOKUP(A276,'JOGOS BASE'!A:E,4,0),IF(K276=J276,VLOOKUP(J276,Substituicoes!J:R,6,0),IF(L276=J276,VLOOKUP(Escalacao!J276,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O276" s="28">
+        <f>IF(AND(K276=L276,LEFT(E276,1)="T"),VLOOKUP(A276,'JOGOS BASE'!A:E,5,0),IF(K276=J276,VLOOKUP(J276,Substituicoes!J:R,7,0),IF(L276=J276,VLOOKUP(Escalacao!J276,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P276" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q276" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>75Pinheiro - MA</v>
+      </c>
+      <c r="R276" s="28" t="str">
+        <f>VLOOKUP(A276,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" ht="20.399999999999999">
+      <c r="A277" s="15">
+        <v>7</v>
+      </c>
+      <c r="B277" s="46">
+        <v>6</v>
+      </c>
+      <c r="C277" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="D277" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="E277" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F277" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G277" s="46">
+        <v>637743</v>
+      </c>
+      <c r="H277" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I277" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Gabriel</v>
+      </c>
+      <c r="J277" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA6</v>
+      </c>
+      <c r="K277" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J277,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L277" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J277,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Pinheiro - MA6</v>
+      </c>
+      <c r="M277" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N277" s="29">
+        <f>IF(AND(K277=L277,LEFT(E277,1)="T"),VLOOKUP(A277,'JOGOS BASE'!A:E,4,0),IF(K277=J277,VLOOKUP(J277,Substituicoes!J:R,6,0),IF(L277=J277,VLOOKUP(Escalacao!J277,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O277" s="28">
+        <f>IF(AND(K277=L277,LEFT(E277,1)="T"),VLOOKUP(A277,'JOGOS BASE'!A:E,5,0),IF(K277=J277,VLOOKUP(J277,Substituicoes!J:R,7,0),IF(L277=J277,VLOOKUP(Escalacao!J277,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P277" s="28">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="Q277" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>76Pinheiro - MA</v>
+      </c>
+      <c r="R277" s="28" t="str">
+        <f>VLOOKUP(A277,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" ht="20.399999999999999">
+      <c r="A278" s="15">
+        <v>7</v>
+      </c>
+      <c r="B278" s="46">
+        <v>7</v>
+      </c>
+      <c r="C278" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D278" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E278" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F278" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G278" s="46">
+        <v>738325</v>
+      </c>
+      <c r="H278" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I278" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>FRANCISCO</v>
+      </c>
+      <c r="J278" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA7</v>
+      </c>
+      <c r="K278" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J278,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L278" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J278,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M278" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N278" s="29">
+        <f>IF(AND(K278=L278,LEFT(E278,1)="T"),VLOOKUP(A278,'JOGOS BASE'!A:E,4,0),IF(K278=J278,VLOOKUP(J278,Substituicoes!J:R,6,0),IF(L278=J278,VLOOKUP(Escalacao!J278,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O278" s="28">
+        <f>IF(AND(K278=L278,LEFT(E278,1)="T"),VLOOKUP(A278,'JOGOS BASE'!A:E,5,0),IF(K278=J278,VLOOKUP(J278,Substituicoes!J:R,7,0),IF(L278=J278,VLOOKUP(Escalacao!J278,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P278" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q278" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>77Pinheiro - MA</v>
+      </c>
+      <c r="R278" s="28" t="str">
+        <f>VLOOKUP(A278,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" ht="20.399999999999999">
+      <c r="A279" s="15">
+        <v>7</v>
+      </c>
+      <c r="B279" s="46">
+        <v>8</v>
+      </c>
+      <c r="C279" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D279" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="E279" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F279" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G279" s="46">
+        <v>552300</v>
+      </c>
+      <c r="H279" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I279" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Tulio</v>
+      </c>
+      <c r="J279" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA8</v>
+      </c>
+      <c r="K279" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J279,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L279" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J279,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M279" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N279" s="29">
+        <f>IF(AND(K279=L279,LEFT(E279,1)="T"),VLOOKUP(A279,'JOGOS BASE'!A:E,4,0),IF(K279=J279,VLOOKUP(J279,Substituicoes!J:R,6,0),IF(L279=J279,VLOOKUP(Escalacao!J279,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O279" s="28">
+        <f>IF(AND(K279=L279,LEFT(E279,1)="T"),VLOOKUP(A279,'JOGOS BASE'!A:E,5,0),IF(K279=J279,VLOOKUP(J279,Substituicoes!J:R,7,0),IF(L279=J279,VLOOKUP(Escalacao!J279,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P279" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q279" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>78Pinheiro - MA</v>
+      </c>
+      <c r="R279" s="28" t="str">
+        <f>VLOOKUP(A279,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" ht="30.6">
+      <c r="A280" s="15">
+        <v>7</v>
+      </c>
+      <c r="B280" s="46">
+        <v>9</v>
+      </c>
+      <c r="C280" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D280" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="E280" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F280" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G280" s="46">
+        <v>464141</v>
+      </c>
+      <c r="H280" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I280" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Cleber</v>
+      </c>
+      <c r="J280" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA9</v>
+      </c>
+      <c r="K280" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J280,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L280" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J280,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Pinheiro - MA9</v>
+      </c>
+      <c r="M280" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N280" s="29">
+        <f>IF(AND(K280=L280,LEFT(E280,1)="T"),VLOOKUP(A280,'JOGOS BASE'!A:E,4,0),IF(K280=J280,VLOOKUP(J280,Substituicoes!J:R,6,0),IF(L280=J280,VLOOKUP(Escalacao!J280,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O280" s="28">
+        <f>IF(AND(K280=L280,LEFT(E280,1)="T"),VLOOKUP(A280,'JOGOS BASE'!A:E,5,0),IF(K280=J280,VLOOKUP(J280,Substituicoes!J:R,7,0),IF(L280=J280,VLOOKUP(Escalacao!J280,Substituicoes!K:R,8,0),0)))</f>
+        <v>30</v>
+      </c>
+      <c r="P280" s="28">
+        <f t="shared" si="33"/>
+        <v>78</v>
+      </c>
+      <c r="Q280" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>79Pinheiro - MA</v>
+      </c>
+      <c r="R280" s="28" t="str">
+        <f>VLOOKUP(A280,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" ht="20.399999999999999">
+      <c r="A281" s="15">
+        <v>7</v>
+      </c>
+      <c r="B281" s="46">
+        <v>10</v>
+      </c>
+      <c r="C281" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D281" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="E281" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F281" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G281" s="46">
+        <v>554277</v>
+      </c>
+      <c r="H281" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I281" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Neto</v>
+      </c>
+      <c r="J281" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA10</v>
+      </c>
+      <c r="K281" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J281,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L281" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J281,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M281" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N281" s="29">
+        <f>IF(AND(K281=L281,LEFT(E281,1)="T"),VLOOKUP(A281,'JOGOS BASE'!A:E,4,0),IF(K281=J281,VLOOKUP(J281,Substituicoes!J:R,6,0),IF(L281=J281,VLOOKUP(Escalacao!J281,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O281" s="28">
+        <f>IF(AND(K281=L281,LEFT(E281,1)="T"),VLOOKUP(A281,'JOGOS BASE'!A:E,5,0),IF(K281=J281,VLOOKUP(J281,Substituicoes!J:R,7,0),IF(L281=J281,VLOOKUP(Escalacao!J281,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P281" s="28">
+        <f t="shared" si="33"/>
+        <v>99</v>
+      </c>
+      <c r="Q281" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>710Pinheiro - MA</v>
+      </c>
+      <c r="R281" s="28" t="str">
+        <f>VLOOKUP(A281,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" ht="30.6">
+      <c r="A282" s="15">
+        <v>7</v>
+      </c>
+      <c r="B282" s="46">
+        <v>11</v>
+      </c>
+      <c r="C282" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="D282" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="E282" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F282" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G282" s="46">
+        <v>612866</v>
+      </c>
+      <c r="H282" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I282" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Joao Pedro</v>
+      </c>
+      <c r="J282" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA11</v>
+      </c>
+      <c r="K282" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J282,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L282" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J282,Substituicoes!K:K,1,0),"SS")</f>
+        <v>7Pinheiro - MA11</v>
+      </c>
+      <c r="M282" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N282" s="29">
+        <f>IF(AND(K282=L282,LEFT(E282,1)="T"),VLOOKUP(A282,'JOGOS BASE'!A:E,4,0),IF(K282=J282,VLOOKUP(J282,Substituicoes!J:R,6,0),IF(L282=J282,VLOOKUP(Escalacao!J282,Substituicoes!K:R,7,0),0)))</f>
+        <v>48</v>
+      </c>
+      <c r="O282" s="28">
+        <f>IF(AND(K282=L282,LEFT(E282,1)="T"),VLOOKUP(A282,'JOGOS BASE'!A:E,5,0),IF(K282=J282,VLOOKUP(J282,Substituicoes!J:R,7,0),IF(L282=J282,VLOOKUP(Escalacao!J282,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P282" s="28">
+        <f t="shared" si="33"/>
+        <v>48</v>
+      </c>
+      <c r="Q282" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>711Pinheiro - MA</v>
+      </c>
+      <c r="R282" s="28" t="str">
+        <f>VLOOKUP(A282,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" ht="20.399999999999999">
+      <c r="A283" s="15">
+        <v>7</v>
+      </c>
+      <c r="B283" s="46">
+        <v>12</v>
+      </c>
+      <c r="C283" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="D283" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="E283" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F283" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G283" s="46">
+        <v>637255</v>
+      </c>
+      <c r="H283" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I283" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>LUAN</v>
+      </c>
+      <c r="J283" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA12</v>
+      </c>
+      <c r="K283" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J283,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L283" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J283,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M283" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N283" s="29">
+        <f>IF(AND(K283=L283,LEFT(E283,1)="T"),VLOOKUP(A283,'JOGOS BASE'!A:E,4,0),IF(K283=J283,VLOOKUP(J283,Substituicoes!J:R,6,0),IF(L283=J283,VLOOKUP(Escalacao!J283,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O283" s="28">
+        <f>IF(AND(K283=L283,LEFT(E283,1)="T"),VLOOKUP(A283,'JOGOS BASE'!A:E,5,0),IF(K283=J283,VLOOKUP(J283,Substituicoes!J:R,7,0),IF(L283=J283,VLOOKUP(Escalacao!J283,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P283" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q283" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>712Pinheiro - MA</v>
+      </c>
+      <c r="R283" s="28" t="str">
+        <f>VLOOKUP(A283,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" ht="30.6">
+      <c r="A284" s="15">
+        <v>7</v>
+      </c>
+      <c r="B284" s="46">
+        <v>13</v>
+      </c>
+      <c r="C284" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D284" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E284" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F284" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G284" s="46">
+        <v>554265</v>
+      </c>
+      <c r="H284" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I284" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Aldomir</v>
+      </c>
+      <c r="J284" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA13</v>
+      </c>
+      <c r="K284" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J284,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L284" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J284,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M284" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N284" s="29">
+        <f>IF(AND(K284=L284,LEFT(E284,1)="T"),VLOOKUP(A284,'JOGOS BASE'!A:E,4,0),IF(K284=J284,VLOOKUP(J284,Substituicoes!J:R,6,0),IF(L284=J284,VLOOKUP(Escalacao!J284,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O284" s="28">
+        <f>IF(AND(K284=L284,LEFT(E284,1)="T"),VLOOKUP(A284,'JOGOS BASE'!A:E,5,0),IF(K284=J284,VLOOKUP(J284,Substituicoes!J:R,7,0),IF(L284=J284,VLOOKUP(Escalacao!J284,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P284" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q284" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>713Pinheiro - MA</v>
+      </c>
+      <c r="R284" s="28" t="str">
+        <f>VLOOKUP(A284,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" ht="20.399999999999999">
+      <c r="A285" s="15">
+        <v>7</v>
+      </c>
+      <c r="B285" s="46">
+        <v>14</v>
+      </c>
+      <c r="C285" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="D285" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="E285" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F285" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G285" s="46">
+        <v>804398</v>
+      </c>
+      <c r="H285" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I285" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Igor Mineiro</v>
+      </c>
+      <c r="J285" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA14</v>
+      </c>
+      <c r="K285" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J285,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L285" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J285,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M285" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N285" s="29">
+        <f>IF(AND(K285=L285,LEFT(E285,1)="T"),VLOOKUP(A285,'JOGOS BASE'!A:E,4,0),IF(K285=J285,VLOOKUP(J285,Substituicoes!J:R,6,0),IF(L285=J285,VLOOKUP(Escalacao!J285,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O285" s="28">
+        <f>IF(AND(K285=L285,LEFT(E285,1)="T"),VLOOKUP(A285,'JOGOS BASE'!A:E,5,0),IF(K285=J285,VLOOKUP(J285,Substituicoes!J:R,7,0),IF(L285=J285,VLOOKUP(Escalacao!J285,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P285" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q285" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>714Pinheiro - MA</v>
+      </c>
+      <c r="R285" s="28" t="str">
+        <f>VLOOKUP(A285,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" ht="30.6">
+      <c r="A286" s="15">
+        <v>7</v>
+      </c>
+      <c r="B286" s="46">
+        <v>15</v>
+      </c>
+      <c r="C286" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D286" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E286" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F286" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G286" s="46">
+        <v>779893</v>
+      </c>
+      <c r="H286" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I286" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>George</v>
+      </c>
+      <c r="J286" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA15</v>
+      </c>
+      <c r="K286" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J286,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Pinheiro - MA15</v>
+      </c>
+      <c r="L286" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J286,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M286" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N286" s="29">
+        <f>IF(AND(K286=L286,LEFT(E286,1)="T"),VLOOKUP(A286,'JOGOS BASE'!A:E,4,0),IF(K286=J286,VLOOKUP(J286,Substituicoes!J:R,6,0),IF(L286=J286,VLOOKUP(Escalacao!J286,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O286" s="28">
+        <f>IF(AND(K286=L286,LEFT(E286,1)="T"),VLOOKUP(A286,'JOGOS BASE'!A:E,5,0),IF(K286=J286,VLOOKUP(J286,Substituicoes!J:R,7,0),IF(L286=J286,VLOOKUP(Escalacao!J286,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P286" s="28">
+        <f t="shared" si="33"/>
+        <v>51</v>
+      </c>
+      <c r="Q286" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>715Pinheiro - MA</v>
+      </c>
+      <c r="R286" s="28" t="str">
+        <f>VLOOKUP(A286,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" ht="20.399999999999999">
+      <c r="A287" s="15">
+        <v>7</v>
+      </c>
+      <c r="B287" s="46">
+        <v>16</v>
+      </c>
+      <c r="C287" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D287" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E287" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F287" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G287" s="46">
+        <v>559235</v>
+      </c>
+      <c r="H287" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I287" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>Jean</v>
+      </c>
+      <c r="J287" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA16</v>
+      </c>
+      <c r="K287" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J287,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L287" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J287,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M287" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N287" s="29">
+        <f>IF(AND(K287=L287,LEFT(E287,1)="T"),VLOOKUP(A287,'JOGOS BASE'!A:E,4,0),IF(K287=J287,VLOOKUP(J287,Substituicoes!J:R,6,0),IF(L287=J287,VLOOKUP(Escalacao!J287,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O287" s="28">
+        <f>IF(AND(K287=L287,LEFT(E287,1)="T"),VLOOKUP(A287,'JOGOS BASE'!A:E,5,0),IF(K287=J287,VLOOKUP(J287,Substituicoes!J:R,7,0),IF(L287=J287,VLOOKUP(Escalacao!J287,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P287" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q287" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>716Pinheiro - MA</v>
+      </c>
+      <c r="R287" s="28" t="str">
+        <f>VLOOKUP(A287,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" ht="30.6">
+      <c r="A288" s="15">
+        <v>7</v>
+      </c>
+      <c r="B288" s="46">
+        <v>17</v>
+      </c>
+      <c r="C288" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="D288" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="E288" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F288" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G288" s="46">
+        <v>816868</v>
+      </c>
+      <c r="H288" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I288" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>KAYKY</v>
+      </c>
+      <c r="J288" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA17</v>
+      </c>
+      <c r="K288" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J288,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Pinheiro - MA17</v>
+      </c>
+      <c r="L288" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J288,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M288" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N288" s="29">
+        <f>IF(AND(K288=L288,LEFT(E288,1)="T"),VLOOKUP(A288,'JOGOS BASE'!A:E,4,0),IF(K288=J288,VLOOKUP(J288,Substituicoes!J:R,6,0),IF(L288=J288,VLOOKUP(Escalacao!J288,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O288" s="28">
+        <f>IF(AND(K288=L288,LEFT(E288,1)="T"),VLOOKUP(A288,'JOGOS BASE'!A:E,5,0),IF(K288=J288,VLOOKUP(J288,Substituicoes!J:R,7,0),IF(L288=J288,VLOOKUP(Escalacao!J288,Substituicoes!K:R,8,0),0)))</f>
+        <v>21</v>
+      </c>
+      <c r="P288" s="28">
+        <f t="shared" si="33"/>
+        <v>21</v>
+      </c>
+      <c r="Q288" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>717Pinheiro - MA</v>
+      </c>
+      <c r="R288" s="28" t="str">
+        <f>VLOOKUP(A288,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" ht="30.6">
+      <c r="A289" s="15">
+        <v>7</v>
+      </c>
+      <c r="B289" s="46">
+        <v>18</v>
+      </c>
+      <c r="C289" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="D289" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="E289" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F289" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G289" s="46">
+        <v>710709</v>
+      </c>
+      <c r="H289" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I289" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>BASTICO</v>
+      </c>
+      <c r="J289" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA18</v>
+      </c>
+      <c r="K289" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J289,Substituicoes!J:J,1,0),"SS")</f>
+        <v>7Pinheiro - MA18</v>
+      </c>
+      <c r="L289" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J289,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M289" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N289" s="29">
+        <f>IF(AND(K289=L289,LEFT(E289,1)="T"),VLOOKUP(A289,'JOGOS BASE'!A:E,4,0),IF(K289=J289,VLOOKUP(J289,Substituicoes!J:R,6,0),IF(L289=J289,VLOOKUP(Escalacao!J289,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O289" s="28">
+        <f>IF(AND(K289=L289,LEFT(E289,1)="T"),VLOOKUP(A289,'JOGOS BASE'!A:E,5,0),IF(K289=J289,VLOOKUP(J289,Substituicoes!J:R,7,0),IF(L289=J289,VLOOKUP(Escalacao!J289,Substituicoes!K:R,8,0),0)))</f>
+        <v>51</v>
+      </c>
+      <c r="P289" s="28">
+        <f t="shared" si="33"/>
+        <v>51</v>
+      </c>
+      <c r="Q289" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>718Pinheiro - MA</v>
+      </c>
+      <c r="R289" s="28" t="str">
+        <f>VLOOKUP(A289,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" ht="30.6">
+      <c r="A290" s="15">
+        <v>7</v>
+      </c>
+      <c r="B290" s="46">
+        <v>19</v>
+      </c>
+      <c r="C290" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="D290" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="E290" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F290" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G290" s="46">
+        <v>894254</v>
+      </c>
+      <c r="H290" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="I290" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v>ANDERSON</v>
+      </c>
+      <c r="J290" s="26" t="str">
+        <f t="shared" si="31"/>
+        <v>7Pinheiro - MA19</v>
+      </c>
+      <c r="K290" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J290,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L290" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J290,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M290" s="28" t="b">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N290" s="29">
+        <f>IF(AND(K290=L290,LEFT(E290,1)="T"),VLOOKUP(A290,'JOGOS BASE'!A:E,4,0),IF(K290=J290,VLOOKUP(J290,Substituicoes!J:R,6,0),IF(L290=J290,VLOOKUP(Escalacao!J290,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O290" s="28">
+        <f>IF(AND(K290=L290,LEFT(E290,1)="T"),VLOOKUP(A290,'JOGOS BASE'!A:E,5,0),IF(K290=J290,VLOOKUP(J290,Substituicoes!J:R,7,0),IF(L290=J290,VLOOKUP(Escalacao!J290,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P290" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q290" s="28" t="str">
+        <f t="shared" si="34"/>
+        <v>719Pinheiro - MA</v>
+      </c>
+      <c r="R290" s="28" t="str">
+        <f>VLOOKUP(A290,'JOGOS BASE'!A:H,8)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" ht="30.6">
+      <c r="A291" s="15">
+        <v>8</v>
+      </c>
+      <c r="B291" s="46">
+        <v>1</v>
+      </c>
+      <c r="C291" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D291" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="E291" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F291" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G291" s="46">
+        <v>178014</v>
+      </c>
+      <c r="H291" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I291" s="26" t="str">
+        <f t="shared" ref="I291:I326" si="35">C291</f>
+        <v>Saulo</v>
+      </c>
+      <c r="J291" s="26" t="str">
+        <f t="shared" ref="J291:J326" si="36">A291&amp;H291&amp;B291</f>
+        <v>8Viana - MA1</v>
+      </c>
+      <c r="K291" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J291,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L291" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J291,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M291" s="28" t="b">
+        <f t="shared" ref="M291:M326" si="37">K291=L291</f>
+        <v>1</v>
+      </c>
+      <c r="N291" s="29">
+        <f>IF(AND(K291=L291,LEFT(E291,1)="T"),VLOOKUP(A291,'JOGOS BASE'!A:E,4,0),IF(K291=J291,VLOOKUP(J291,Substituicoes!J:R,6,0),IF(L291=J291,VLOOKUP(Escalacao!J291,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O291" s="28">
+        <f>IF(AND(K291=L291,LEFT(E291,1)="T"),VLOOKUP(A291,'JOGOS BASE'!A:E,5,0),IF(K291=J291,VLOOKUP(J291,Substituicoes!J:R,7,0),IF(L291=J291,VLOOKUP(Escalacao!J291,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P291" s="28">
+        <f t="shared" ref="P291:P326" si="38">N291+O291</f>
+        <v>103</v>
+      </c>
+      <c r="Q291" s="28" t="str">
+        <f t="shared" ref="Q291:Q326" si="39">A291&amp;B291&amp;H291</f>
+        <v>81Viana - MA</v>
+      </c>
+      <c r="R291" s="28" t="str">
+        <f>VLOOKUP(A291,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" ht="30.6">
+      <c r="A292" s="15">
+        <v>8</v>
+      </c>
+      <c r="B292" s="46">
+        <v>2</v>
+      </c>
+      <c r="C292" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="D292" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="E292" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F292" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G292" s="46">
+        <v>894365</v>
+      </c>
+      <c r="H292" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I292" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>JAMILSON</v>
+      </c>
+      <c r="J292" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA2</v>
+      </c>
+      <c r="K292" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J292,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L292" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J292,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M292" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N292" s="29">
+        <f>IF(AND(K292=L292,LEFT(E292,1)="T"),VLOOKUP(A292,'JOGOS BASE'!A:E,4,0),IF(K292=J292,VLOOKUP(J292,Substituicoes!J:R,6,0),IF(L292=J292,VLOOKUP(Escalacao!J292,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O292" s="28">
+        <f>IF(AND(K292=L292,LEFT(E292,1)="T"),VLOOKUP(A292,'JOGOS BASE'!A:E,5,0),IF(K292=J292,VLOOKUP(J292,Substituicoes!J:R,7,0),IF(L292=J292,VLOOKUP(Escalacao!J292,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P292" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q292" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>82Viana - MA</v>
+      </c>
+      <c r="R292" s="28" t="str">
+        <f>VLOOKUP(A292,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="30.6">
+      <c r="A293" s="15">
+        <v>8</v>
+      </c>
+      <c r="B293" s="46">
+        <v>3</v>
+      </c>
+      <c r="C293" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="D293" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="E293" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F293" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G293" s="46">
+        <v>396008</v>
+      </c>
+      <c r="H293" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I293" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Brener Bessa</v>
+      </c>
+      <c r="J293" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA3</v>
+      </c>
+      <c r="K293" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J293,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L293" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J293,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M293" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N293" s="29">
+        <f>IF(AND(K293=L293,LEFT(E293,1)="T"),VLOOKUP(A293,'JOGOS BASE'!A:E,4,0),IF(K293=J293,VLOOKUP(J293,Substituicoes!J:R,6,0),IF(L293=J293,VLOOKUP(Escalacao!J293,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O293" s="28">
+        <f>IF(AND(K293=L293,LEFT(E293,1)="T"),VLOOKUP(A293,'JOGOS BASE'!A:E,5,0),IF(K293=J293,VLOOKUP(J293,Substituicoes!J:R,7,0),IF(L293=J293,VLOOKUP(Escalacao!J293,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P293" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q293" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>83Viana - MA</v>
+      </c>
+      <c r="R293" s="28" t="str">
+        <f>VLOOKUP(A293,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" ht="20.399999999999999">
+      <c r="A294" s="15">
+        <v>8</v>
+      </c>
+      <c r="B294" s="46">
+        <v>4</v>
+      </c>
+      <c r="C294" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="D294" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="E294" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F294" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G294" s="46">
+        <v>709273</v>
+      </c>
+      <c r="H294" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I294" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>CAIO</v>
+      </c>
+      <c r="J294" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA4</v>
+      </c>
+      <c r="K294" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J294,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L294" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J294,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M294" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N294" s="29">
+        <f>IF(AND(K294=L294,LEFT(E294,1)="T"),VLOOKUP(A294,'JOGOS BASE'!A:E,4,0),IF(K294=J294,VLOOKUP(J294,Substituicoes!J:R,6,0),IF(L294=J294,VLOOKUP(Escalacao!J294,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O294" s="28">
+        <f>IF(AND(K294=L294,LEFT(E294,1)="T"),VLOOKUP(A294,'JOGOS BASE'!A:E,5,0),IF(K294=J294,VLOOKUP(J294,Substituicoes!J:R,7,0),IF(L294=J294,VLOOKUP(Escalacao!J294,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P294" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q294" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>84Viana - MA</v>
+      </c>
+      <c r="R294" s="28" t="str">
+        <f>VLOOKUP(A294,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" ht="30.6">
+      <c r="A295" s="15">
+        <v>8</v>
+      </c>
+      <c r="B295" s="46">
+        <v>5</v>
+      </c>
+      <c r="C295" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D295" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="E295" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F295" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G295" s="46">
+        <v>799878</v>
+      </c>
+      <c r="H295" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I295" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>RIQUELME</v>
+      </c>
+      <c r="J295" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA5</v>
+      </c>
+      <c r="K295" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J295,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L295" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J295,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M295" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N295" s="29">
+        <f>IF(AND(K295=L295,LEFT(E295,1)="T"),VLOOKUP(A295,'JOGOS BASE'!A:E,4,0),IF(K295=J295,VLOOKUP(J295,Substituicoes!J:R,6,0),IF(L295=J295,VLOOKUP(Escalacao!J295,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O295" s="28">
+        <f>IF(AND(K295=L295,LEFT(E295,1)="T"),VLOOKUP(A295,'JOGOS BASE'!A:E,5,0),IF(K295=J295,VLOOKUP(J295,Substituicoes!J:R,7,0),IF(L295=J295,VLOOKUP(Escalacao!J295,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P295" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q295" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>85Viana - MA</v>
+      </c>
+      <c r="R295" s="28" t="str">
+        <f>VLOOKUP(A295,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" ht="30.6">
+      <c r="A296" s="15">
+        <v>8</v>
+      </c>
+      <c r="B296" s="46">
+        <v>6</v>
+      </c>
+      <c r="C296" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D296" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="E296" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F296" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G296" s="46">
+        <v>581708</v>
+      </c>
+      <c r="H296" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I296" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Mateus</v>
+      </c>
+      <c r="J296" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA6</v>
+      </c>
+      <c r="K296" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J296,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L296" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J296,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M296" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N296" s="29">
+        <f>IF(AND(K296=L296,LEFT(E296,1)="T"),VLOOKUP(A296,'JOGOS BASE'!A:E,4,0),IF(K296=J296,VLOOKUP(J296,Substituicoes!J:R,6,0),IF(L296=J296,VLOOKUP(Escalacao!J296,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O296" s="28">
+        <f>IF(AND(K296=L296,LEFT(E296,1)="T"),VLOOKUP(A296,'JOGOS BASE'!A:E,5,0),IF(K296=J296,VLOOKUP(J296,Substituicoes!J:R,7,0),IF(L296=J296,VLOOKUP(Escalacao!J296,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P296" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q296" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>86Viana - MA</v>
+      </c>
+      <c r="R296" s="28" t="str">
+        <f>VLOOKUP(A296,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" ht="30.6">
+      <c r="A297" s="15">
+        <v>8</v>
+      </c>
+      <c r="B297" s="46">
+        <v>7</v>
+      </c>
+      <c r="C297" s="45" t="s">
+        <v>609</v>
+      </c>
+      <c r="D297" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="E297" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F297" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G297" s="46">
+        <v>590716</v>
+      </c>
+      <c r="H297" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I297" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>arisco</v>
+      </c>
+      <c r="J297" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA7</v>
+      </c>
+      <c r="K297" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J297,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L297" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J297,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Viana - MA7</v>
+      </c>
+      <c r="M297" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N297" s="29">
+        <f>IF(AND(K297=L297,LEFT(E297,1)="T"),VLOOKUP(A297,'JOGOS BASE'!A:E,4,0),IF(K297=J297,VLOOKUP(J297,Substituicoes!J:R,6,0),IF(L297=J297,VLOOKUP(Escalacao!J297,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O297" s="28">
+        <f>IF(AND(K297=L297,LEFT(E297,1)="T"),VLOOKUP(A297,'JOGOS BASE'!A:E,5,0),IF(K297=J297,VLOOKUP(J297,Substituicoes!J:R,7,0),IF(L297=J297,VLOOKUP(Escalacao!J297,Substituicoes!K:R,8,0),0)))</f>
+        <v>42</v>
+      </c>
+      <c r="P297" s="28">
+        <f t="shared" si="38"/>
+        <v>92</v>
+      </c>
+      <c r="Q297" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>87Viana - MA</v>
+      </c>
+      <c r="R297" s="28" t="str">
+        <f>VLOOKUP(A297,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" ht="30.6">
+      <c r="A298" s="15">
+        <v>8</v>
+      </c>
+      <c r="B298" s="46">
+        <v>8</v>
+      </c>
+      <c r="C298" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="E298" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F298" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G298" s="46">
+        <v>894358</v>
+      </c>
+      <c r="H298" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I298" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>LUANDERSO</v>
+      </c>
+      <c r="J298" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA8</v>
+      </c>
+      <c r="K298" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J298,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L298" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J298,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Viana - MA8</v>
+      </c>
+      <c r="M298" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N298" s="29">
+        <f>IF(AND(K298=L298,LEFT(E298,1)="T"),VLOOKUP(A298,'JOGOS BASE'!A:E,4,0),IF(K298=J298,VLOOKUP(J298,Substituicoes!J:R,6,0),IF(L298=J298,VLOOKUP(Escalacao!J298,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O298" s="28">
+        <f>IF(AND(K298=L298,LEFT(E298,1)="T"),VLOOKUP(A298,'JOGOS BASE'!A:E,5,0),IF(K298=J298,VLOOKUP(J298,Substituicoes!J:R,7,0),IF(L298=J298,VLOOKUP(Escalacao!J298,Substituicoes!K:R,8,0),0)))</f>
+        <v>17</v>
+      </c>
+      <c r="P298" s="28">
+        <f t="shared" si="38"/>
+        <v>67</v>
+      </c>
+      <c r="Q298" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>88Viana - MA</v>
+      </c>
+      <c r="R298" s="28" t="str">
+        <f>VLOOKUP(A298,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" ht="30.6">
+      <c r="A299" s="15">
+        <v>8</v>
+      </c>
+      <c r="B299" s="46">
+        <v>9</v>
+      </c>
+      <c r="C299" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D299" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="E299" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F299" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G299" s="46">
+        <v>611781</v>
+      </c>
+      <c r="H299" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I299" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Thiago</v>
+      </c>
+      <c r="J299" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA9</v>
+      </c>
+      <c r="K299" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J299,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L299" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J299,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M299" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N299" s="29">
+        <f>IF(AND(K299=L299,LEFT(E299,1)="T"),VLOOKUP(A299,'JOGOS BASE'!A:E,4,0),IF(K299=J299,VLOOKUP(J299,Substituicoes!J:R,6,0),IF(L299=J299,VLOOKUP(Escalacao!J299,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O299" s="28">
+        <f>IF(AND(K299=L299,LEFT(E299,1)="T"),VLOOKUP(A299,'JOGOS BASE'!A:E,5,0),IF(K299=J299,VLOOKUP(J299,Substituicoes!J:R,7,0),IF(L299=J299,VLOOKUP(Escalacao!J299,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P299" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q299" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>89Viana - MA</v>
+      </c>
+      <c r="R299" s="28" t="str">
+        <f>VLOOKUP(A299,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" ht="20.399999999999999">
+      <c r="A300" s="15">
+        <v>8</v>
+      </c>
+      <c r="B300" s="46">
+        <v>10</v>
+      </c>
+      <c r="C300" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="D300" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="E300" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F300" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G300" s="46">
+        <v>700228</v>
+      </c>
+      <c r="H300" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I300" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>ARIEL</v>
+      </c>
+      <c r="J300" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA10</v>
+      </c>
+      <c r="K300" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J300,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L300" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J300,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Viana - MA10</v>
+      </c>
+      <c r="M300" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N300" s="29">
+        <f>IF(AND(K300=L300,LEFT(E300,1)="T"),VLOOKUP(A300,'JOGOS BASE'!A:E,4,0),IF(K300=J300,VLOOKUP(J300,Substituicoes!J:R,6,0),IF(L300=J300,VLOOKUP(Escalacao!J300,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O300" s="28">
+        <f>IF(AND(K300=L300,LEFT(E300,1)="T"),VLOOKUP(A300,'JOGOS BASE'!A:E,5,0),IF(K300=J300,VLOOKUP(J300,Substituicoes!J:R,7,0),IF(L300=J300,VLOOKUP(Escalacao!J300,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P300" s="28">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="Q300" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>810Viana - MA</v>
+      </c>
+      <c r="R300" s="28" t="str">
+        <f>VLOOKUP(A300,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" ht="30.6">
+      <c r="A301" s="15">
+        <v>8</v>
+      </c>
+      <c r="B301" s="46">
+        <v>11</v>
+      </c>
+      <c r="C301" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D301" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="E301" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F301" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G301" s="46">
+        <v>642816</v>
+      </c>
+      <c r="H301" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I301" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Thiago</v>
+      </c>
+      <c r="J301" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA11</v>
+      </c>
+      <c r="K301" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J301,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L301" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J301,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M301" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N301" s="29">
+        <f>IF(AND(K301=L301,LEFT(E301,1)="T"),VLOOKUP(A301,'JOGOS BASE'!A:E,4,0),IF(K301=J301,VLOOKUP(J301,Substituicoes!J:R,6,0),IF(L301=J301,VLOOKUP(Escalacao!J301,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O301" s="28">
+        <f>IF(AND(K301=L301,LEFT(E301,1)="T"),VLOOKUP(A301,'JOGOS BASE'!A:E,5,0),IF(K301=J301,VLOOKUP(J301,Substituicoes!J:R,7,0),IF(L301=J301,VLOOKUP(Escalacao!J301,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P301" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q301" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>811Viana - MA</v>
+      </c>
+      <c r="R301" s="28" t="str">
+        <f>VLOOKUP(A301,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" ht="30.6">
+      <c r="A302" s="15">
+        <v>8</v>
+      </c>
+      <c r="B302" s="46">
+        <v>12</v>
+      </c>
+      <c r="C302" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D302" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="E302" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F302" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G302" s="46">
+        <v>648064</v>
+      </c>
+      <c r="H302" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I302" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>LUCAS</v>
+      </c>
+      <c r="J302" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA12</v>
+      </c>
+      <c r="K302" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J302,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L302" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J302,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M302" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N302" s="29">
+        <f>IF(AND(K302=L302,LEFT(E302,1)="T"),VLOOKUP(A302,'JOGOS BASE'!A:E,4,0),IF(K302=J302,VLOOKUP(J302,Substituicoes!J:R,6,0),IF(L302=J302,VLOOKUP(Escalacao!J302,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O302" s="28">
+        <f>IF(AND(K302=L302,LEFT(E302,1)="T"),VLOOKUP(A302,'JOGOS BASE'!A:E,5,0),IF(K302=J302,VLOOKUP(J302,Substituicoes!J:R,7,0),IF(L302=J302,VLOOKUP(Escalacao!J302,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P302" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q302" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>812Viana - MA</v>
+      </c>
+      <c r="R302" s="28" t="str">
+        <f>VLOOKUP(A302,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" ht="30.6">
+      <c r="A303" s="15">
+        <v>8</v>
+      </c>
+      <c r="B303" s="46">
+        <v>13</v>
+      </c>
+      <c r="C303" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="D303" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="E303" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F303" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G303" s="46">
+        <v>683760</v>
+      </c>
+      <c r="H303" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I303" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>PAULO</v>
+      </c>
+      <c r="J303" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA13</v>
+      </c>
+      <c r="K303" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J303,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Viana - MA13</v>
+      </c>
+      <c r="L303" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J303,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M303" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N303" s="29">
+        <f>IF(AND(K303=L303,LEFT(E303,1)="T"),VLOOKUP(A303,'JOGOS BASE'!A:E,4,0),IF(K303=J303,VLOOKUP(J303,Substituicoes!J:R,6,0),IF(L303=J303,VLOOKUP(Escalacao!J303,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O303" s="28">
+        <f>IF(AND(K303=L303,LEFT(E303,1)="T"),VLOOKUP(A303,'JOGOS BASE'!A:E,5,0),IF(K303=J303,VLOOKUP(J303,Substituicoes!J:R,7,0),IF(L303=J303,VLOOKUP(Escalacao!J303,Substituicoes!K:R,8,0),0)))</f>
+        <v>11</v>
+      </c>
+      <c r="P303" s="28">
+        <f t="shared" si="38"/>
+        <v>11</v>
+      </c>
+      <c r="Q303" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>813Viana - MA</v>
+      </c>
+      <c r="R303" s="28" t="str">
+        <f>VLOOKUP(A303,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" ht="30.6">
+      <c r="A304" s="15">
+        <v>8</v>
+      </c>
+      <c r="B304" s="46">
+        <v>14</v>
+      </c>
+      <c r="C304" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D304" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="E304" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F304" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G304" s="46">
+        <v>628431</v>
+      </c>
+      <c r="H304" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I304" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Lucas Ramos</v>
+      </c>
+      <c r="J304" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA14</v>
+      </c>
+      <c r="K304" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J304,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Viana - MA14</v>
+      </c>
+      <c r="L304" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J304,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M304" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N304" s="29">
+        <f>IF(AND(K304=L304,LEFT(E304,1)="T"),VLOOKUP(A304,'JOGOS BASE'!A:E,4,0),IF(K304=J304,VLOOKUP(J304,Substituicoes!J:R,6,0),IF(L304=J304,VLOOKUP(Escalacao!J304,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O304" s="28">
+        <f>IF(AND(K304=L304,LEFT(E304,1)="T"),VLOOKUP(A304,'JOGOS BASE'!A:E,5,0),IF(K304=J304,VLOOKUP(J304,Substituicoes!J:R,7,0),IF(L304=J304,VLOOKUP(Escalacao!J304,Substituicoes!K:R,8,0),0)))</f>
+        <v>36</v>
+      </c>
+      <c r="P304" s="28">
+        <f t="shared" si="38"/>
+        <v>36</v>
+      </c>
+      <c r="Q304" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>814Viana - MA</v>
+      </c>
+      <c r="R304" s="28" t="str">
+        <f>VLOOKUP(A304,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" ht="30.6">
+      <c r="A305" s="15">
+        <v>8</v>
+      </c>
+      <c r="B305" s="46">
+        <v>15</v>
+      </c>
+      <c r="C305" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E305" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F305" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G305" s="46">
+        <v>621098</v>
+      </c>
+      <c r="H305" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I305" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Leleu</v>
+      </c>
+      <c r="J305" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA15</v>
+      </c>
+      <c r="K305" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J305,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Viana - MA15</v>
+      </c>
+      <c r="L305" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J305,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M305" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N305" s="29">
+        <f>IF(AND(K305=L305,LEFT(E305,1)="T"),VLOOKUP(A305,'JOGOS BASE'!A:E,4,0),IF(K305=J305,VLOOKUP(J305,Substituicoes!J:R,6,0),IF(L305=J305,VLOOKUP(Escalacao!J305,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O305" s="28">
+        <f>IF(AND(K305=L305,LEFT(E305,1)="T"),VLOOKUP(A305,'JOGOS BASE'!A:E,5,0),IF(K305=J305,VLOOKUP(J305,Substituicoes!J:R,7,0),IF(L305=J305,VLOOKUP(Escalacao!J305,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P305" s="28">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="Q305" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>815Viana - MA</v>
+      </c>
+      <c r="R305" s="28" t="str">
+        <f>VLOOKUP(A305,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" ht="30.6">
+      <c r="A306" s="15">
+        <v>8</v>
+      </c>
+      <c r="B306" s="46">
+        <v>16</v>
+      </c>
+      <c r="C306" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>615</v>
+      </c>
+      <c r="E306" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F306" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G306" s="46">
+        <v>894165</v>
+      </c>
+      <c r="H306" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="I306" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>MATEUS OLI .</v>
+      </c>
+      <c r="J306" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Viana - MA16</v>
+      </c>
+      <c r="K306" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J306,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L306" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J306,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M306" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N306" s="29">
+        <f>IF(AND(K306=L306,LEFT(E306,1)="T"),VLOOKUP(A306,'JOGOS BASE'!A:E,4,0),IF(K306=J306,VLOOKUP(J306,Substituicoes!J:R,6,0),IF(L306=J306,VLOOKUP(Escalacao!J306,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O306" s="28">
+        <f>IF(AND(K306=L306,LEFT(E306,1)="T"),VLOOKUP(A306,'JOGOS BASE'!A:E,5,0),IF(K306=J306,VLOOKUP(J306,Substituicoes!J:R,7,0),IF(L306=J306,VLOOKUP(Escalacao!J306,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P306" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q306" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>816Viana - MA</v>
+      </c>
+      <c r="R306" s="28" t="str">
+        <f>VLOOKUP(A306,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" ht="30.6">
+      <c r="A307" s="15">
+        <v>8</v>
+      </c>
+      <c r="B307" s="46">
+        <v>12</v>
+      </c>
+      <c r="C307" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E307" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F307" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G307" s="46">
+        <v>387319</v>
+      </c>
+      <c r="H307" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I307" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Rhuan</v>
+      </c>
+      <c r="J307" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA12</v>
+      </c>
+      <c r="K307" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J307,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L307" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J307,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M307" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N307" s="29">
+        <f>IF(AND(K307=L307,LEFT(E307,1)="T"),VLOOKUP(A307,'JOGOS BASE'!A:E,4,0),IF(K307=J307,VLOOKUP(J307,Substituicoes!J:R,6,0),IF(L307=J307,VLOOKUP(Escalacao!J307,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O307" s="28">
+        <f>IF(AND(K307=L307,LEFT(E307,1)="T"),VLOOKUP(A307,'JOGOS BASE'!A:E,5,0),IF(K307=J307,VLOOKUP(J307,Substituicoes!J:R,7,0),IF(L307=J307,VLOOKUP(Escalacao!J307,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P307" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q307" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>812Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R307" s="28" t="str">
+        <f>VLOOKUP(A307,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" ht="30.6">
+      <c r="A308" s="15">
+        <v>8</v>
+      </c>
+      <c r="B308" s="46">
+        <v>2</v>
+      </c>
+      <c r="C308" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D308" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E308" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F308" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G308" s="46">
+        <v>552526</v>
+      </c>
+      <c r="H308" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I308" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Ray</v>
+      </c>
+      <c r="J308" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA2</v>
+      </c>
+      <c r="K308" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J308,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L308" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J308,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M308" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N308" s="29">
+        <f>IF(AND(K308=L308,LEFT(E308,1)="T"),VLOOKUP(A308,'JOGOS BASE'!A:E,4,0),IF(K308=J308,VLOOKUP(J308,Substituicoes!J:R,6,0),IF(L308=J308,VLOOKUP(Escalacao!J308,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O308" s="28">
+        <f>IF(AND(K308=L308,LEFT(E308,1)="T"),VLOOKUP(A308,'JOGOS BASE'!A:E,5,0),IF(K308=J308,VLOOKUP(J308,Substituicoes!J:R,7,0),IF(L308=J308,VLOOKUP(Escalacao!J308,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P308" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q308" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>82Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R308" s="28" t="str">
+        <f>VLOOKUP(A308,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" ht="30.6">
+      <c r="A309" s="15">
+        <v>8</v>
+      </c>
+      <c r="B309" s="46">
+        <v>3</v>
+      </c>
+      <c r="C309" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D309" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E309" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F309" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G309" s="46">
+        <v>657429</v>
+      </c>
+      <c r="H309" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I309" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Eduardo</v>
+      </c>
+      <c r="J309" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA3</v>
+      </c>
+      <c r="K309" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J309,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L309" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J309,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M309" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N309" s="29">
+        <f>IF(AND(K309=L309,LEFT(E309,1)="T"),VLOOKUP(A309,'JOGOS BASE'!A:E,4,0),IF(K309=J309,VLOOKUP(J309,Substituicoes!J:R,6,0),IF(L309=J309,VLOOKUP(Escalacao!J309,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O309" s="28">
+        <f>IF(AND(K309=L309,LEFT(E309,1)="T"),VLOOKUP(A309,'JOGOS BASE'!A:E,5,0),IF(K309=J309,VLOOKUP(J309,Substituicoes!J:R,7,0),IF(L309=J309,VLOOKUP(Escalacao!J309,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P309" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q309" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>83Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R309" s="28" t="str">
+        <f>VLOOKUP(A309,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" ht="30.6">
+      <c r="A310" s="15">
+        <v>8</v>
+      </c>
+      <c r="B310" s="46">
+        <v>4</v>
+      </c>
+      <c r="C310" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D310" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E310" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F310" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G310" s="46">
+        <v>590518</v>
+      </c>
+      <c r="H310" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I310" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>GALVÃO</v>
+      </c>
+      <c r="J310" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA4</v>
+      </c>
+      <c r="K310" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J310,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L310" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J310,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M310" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N310" s="29">
+        <f>IF(AND(K310=L310,LEFT(E310,1)="T"),VLOOKUP(A310,'JOGOS BASE'!A:E,4,0),IF(K310=J310,VLOOKUP(J310,Substituicoes!J:R,6,0),IF(L310=J310,VLOOKUP(Escalacao!J310,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O310" s="28">
+        <f>IF(AND(K310=L310,LEFT(E310,1)="T"),VLOOKUP(A310,'JOGOS BASE'!A:E,5,0),IF(K310=J310,VLOOKUP(J310,Substituicoes!J:R,7,0),IF(L310=J310,VLOOKUP(Escalacao!J310,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P310" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q310" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>84Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R310" s="28" t="str">
+        <f>VLOOKUP(A310,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" ht="30.6">
+      <c r="A311" s="15">
+        <v>8</v>
+      </c>
+      <c r="B311" s="46">
+        <v>5</v>
+      </c>
+      <c r="C311" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D311" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E311" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F311" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G311" s="46">
+        <v>757475</v>
+      </c>
+      <c r="H311" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I311" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>JARDSON</v>
+      </c>
+      <c r="J311" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA5</v>
+      </c>
+      <c r="K311" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J311,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L311" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J311,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA5</v>
+      </c>
+      <c r="M311" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N311" s="29">
+        <f>IF(AND(K311=L311,LEFT(E311,1)="T"),VLOOKUP(A311,'JOGOS BASE'!A:E,4,0),IF(K311=J311,VLOOKUP(J311,Substituicoes!J:R,6,0),IF(L311=J311,VLOOKUP(Escalacao!J311,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O311" s="28">
+        <f>IF(AND(K311=L311,LEFT(E311,1)="T"),VLOOKUP(A311,'JOGOS BASE'!A:E,5,0),IF(K311=J311,VLOOKUP(J311,Substituicoes!J:R,7,0),IF(L311=J311,VLOOKUP(Escalacao!J311,Substituicoes!K:R,8,0),0)))</f>
+        <v>14</v>
+      </c>
+      <c r="P311" s="28">
+        <f t="shared" si="38"/>
+        <v>64</v>
+      </c>
+      <c r="Q311" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>85Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R311" s="28" t="str">
+        <f>VLOOKUP(A311,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" ht="30.6">
+      <c r="A312" s="15">
+        <v>8</v>
+      </c>
+      <c r="B312" s="46">
+        <v>6</v>
+      </c>
+      <c r="C312" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="D312" s="45" t="s">
+        <v>479</v>
+      </c>
+      <c r="E312" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F312" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G312" s="46">
+        <v>636795</v>
+      </c>
+      <c r="H312" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I312" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Elivelton</v>
+      </c>
+      <c r="J312" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA6</v>
+      </c>
+      <c r="K312" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J312,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L312" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J312,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M312" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N312" s="29">
+        <f>IF(AND(K312=L312,LEFT(E312,1)="T"),VLOOKUP(A312,'JOGOS BASE'!A:E,4,0),IF(K312=J312,VLOOKUP(J312,Substituicoes!J:R,6,0),IF(L312=J312,VLOOKUP(Escalacao!J312,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O312" s="28">
+        <f>IF(AND(K312=L312,LEFT(E312,1)="T"),VLOOKUP(A312,'JOGOS BASE'!A:E,5,0),IF(K312=J312,VLOOKUP(J312,Substituicoes!J:R,7,0),IF(L312=J312,VLOOKUP(Escalacao!J312,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P312" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q312" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>86Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R312" s="28" t="str">
+        <f>VLOOKUP(A312,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" ht="30.6">
+      <c r="A313" s="15">
+        <v>8</v>
+      </c>
+      <c r="B313" s="46">
+        <v>7</v>
+      </c>
+      <c r="C313" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="D313" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="E313" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F313" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G313" s="46">
+        <v>614561</v>
+      </c>
+      <c r="H313" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I313" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Dodô</v>
+      </c>
+      <c r="J313" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA7</v>
+      </c>
+      <c r="K313" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J313,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L313" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J313,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA7</v>
+      </c>
+      <c r="M313" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N313" s="29">
+        <f>IF(AND(K313=L313,LEFT(E313,1)="T"),VLOOKUP(A313,'JOGOS BASE'!A:E,4,0),IF(K313=J313,VLOOKUP(J313,Substituicoes!J:R,6,0),IF(L313=J313,VLOOKUP(Escalacao!J313,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O313" s="28">
+        <f>IF(AND(K313=L313,LEFT(E313,1)="T"),VLOOKUP(A313,'JOGOS BASE'!A:E,5,0),IF(K313=J313,VLOOKUP(J313,Substituicoes!J:R,7,0),IF(L313=J313,VLOOKUP(Escalacao!J313,Substituicoes!K:R,8,0),0)))</f>
+        <v>30</v>
+      </c>
+      <c r="P313" s="28">
+        <f t="shared" si="38"/>
+        <v>80</v>
+      </c>
+      <c r="Q313" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>87Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R313" s="28" t="str">
+        <f>VLOOKUP(A313,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" ht="20.399999999999999">
+      <c r="A314" s="15">
+        <v>8</v>
+      </c>
+      <c r="B314" s="46">
+        <v>8</v>
+      </c>
+      <c r="C314" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D314" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E314" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F314" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G314" s="46">
+        <v>523681</v>
+      </c>
+      <c r="H314" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I314" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Jairzinho</v>
+      </c>
+      <c r="J314" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA8</v>
+      </c>
+      <c r="K314" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J314,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L314" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J314,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA8</v>
+      </c>
+      <c r="M314" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N314" s="29">
+        <f>IF(AND(K314=L314,LEFT(E314,1)="T"),VLOOKUP(A314,'JOGOS BASE'!A:E,4,0),IF(K314=J314,VLOOKUP(J314,Substituicoes!J:R,6,0),IF(L314=J314,VLOOKUP(Escalacao!J314,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O314" s="28">
+        <f>IF(AND(K314=L314,LEFT(E314,1)="T"),VLOOKUP(A314,'JOGOS BASE'!A:E,5,0),IF(K314=J314,VLOOKUP(J314,Substituicoes!J:R,7,0),IF(L314=J314,VLOOKUP(Escalacao!J314,Substituicoes!K:R,8,0),0)))</f>
+        <v>21</v>
+      </c>
+      <c r="P314" s="28">
+        <f t="shared" si="38"/>
+        <v>71</v>
+      </c>
+      <c r="Q314" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>88Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R314" s="28" t="str">
+        <f>VLOOKUP(A314,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" ht="30.6">
+      <c r="A315" s="15">
+        <v>8</v>
+      </c>
+      <c r="B315" s="46">
+        <v>9</v>
+      </c>
+      <c r="C315" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D315" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E315" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F315" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G315" s="46">
+        <v>673834</v>
+      </c>
+      <c r="H315" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I315" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>L7</v>
+      </c>
+      <c r="J315" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA9</v>
+      </c>
+      <c r="K315" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J315,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L315" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J315,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA9</v>
+      </c>
+      <c r="M315" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N315" s="29">
+        <f>IF(AND(K315=L315,LEFT(E315,1)="T"),VLOOKUP(A315,'JOGOS BASE'!A:E,4,0),IF(K315=J315,VLOOKUP(J315,Substituicoes!J:R,6,0),IF(L315=J315,VLOOKUP(Escalacao!J315,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O315" s="28">
+        <f>IF(AND(K315=L315,LEFT(E315,1)="T"),VLOOKUP(A315,'JOGOS BASE'!A:E,5,0),IF(K315=J315,VLOOKUP(J315,Substituicoes!J:R,7,0),IF(L315=J315,VLOOKUP(Escalacao!J315,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P315" s="28">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="Q315" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>89Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R315" s="28" t="str">
+        <f>VLOOKUP(A315,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" ht="30.6">
+      <c r="A316" s="15">
+        <v>8</v>
+      </c>
+      <c r="B316" s="46">
+        <v>11</v>
+      </c>
+      <c r="C316" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D316" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E316" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F316" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G316" s="46">
+        <v>612220</v>
+      </c>
+      <c r="H316" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I316" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Wendell</v>
+      </c>
+      <c r="J316" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA11</v>
+      </c>
+      <c r="K316" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J316,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L316" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J316,Substituicoes!K:K,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA11</v>
+      </c>
+      <c r="M316" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N316" s="29">
+        <f>IF(AND(K316=L316,LEFT(E316,1)="T"),VLOOKUP(A316,'JOGOS BASE'!A:E,4,0),IF(K316=J316,VLOOKUP(J316,Substituicoes!J:R,6,0),IF(L316=J316,VLOOKUP(Escalacao!J316,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O316" s="28">
+        <f>IF(AND(K316=L316,LEFT(E316,1)="T"),VLOOKUP(A316,'JOGOS BASE'!A:E,5,0),IF(K316=J316,VLOOKUP(J316,Substituicoes!J:R,7,0),IF(L316=J316,VLOOKUP(Escalacao!J316,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P316" s="28">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="Q316" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>811Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R316" s="28" t="str">
+        <f>VLOOKUP(A316,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" ht="30.6">
+      <c r="A317" s="15">
+        <v>8</v>
+      </c>
+      <c r="B317" s="46">
+        <v>18</v>
+      </c>
+      <c r="C317" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D317" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E317" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F317" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G317" s="46">
+        <v>335977</v>
+      </c>
+      <c r="H317" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I317" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Bruno Matos</v>
+      </c>
+      <c r="J317" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA18</v>
+      </c>
+      <c r="K317" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J317,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L317" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J317,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M317" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N317" s="29">
+        <f>IF(AND(K317=L317,LEFT(E317,1)="T"),VLOOKUP(A317,'JOGOS BASE'!A:E,4,0),IF(K317=J317,VLOOKUP(J317,Substituicoes!J:R,6,0),IF(L317=J317,VLOOKUP(Escalacao!J317,Substituicoes!K:R,7,0),0)))</f>
+        <v>50</v>
+      </c>
+      <c r="O317" s="28">
+        <f>IF(AND(K317=L317,LEFT(E317,1)="T"),VLOOKUP(A317,'JOGOS BASE'!A:E,5,0),IF(K317=J317,VLOOKUP(J317,Substituicoes!J:R,7,0),IF(L317=J317,VLOOKUP(Escalacao!J317,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P317" s="28">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="Q317" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>818Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R317" s="28" t="str">
+        <f>VLOOKUP(A317,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" ht="20.399999999999999">
+      <c r="A318" s="15">
+        <v>8</v>
+      </c>
+      <c r="B318" s="46">
+        <v>1</v>
+      </c>
+      <c r="C318" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D318" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E318" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F318" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G318" s="46">
+        <v>639922</v>
+      </c>
+      <c r="H318" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I318" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>ALAN</v>
+      </c>
+      <c r="J318" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA1</v>
+      </c>
+      <c r="K318" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J318,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L318" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J318,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M318" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N318" s="29">
+        <f>IF(AND(K318=L318,LEFT(E318,1)="T"),VLOOKUP(A318,'JOGOS BASE'!A:E,4,0),IF(K318=J318,VLOOKUP(J318,Substituicoes!J:R,6,0),IF(L318=J318,VLOOKUP(Escalacao!J318,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O318" s="28">
+        <f>IF(AND(K318=L318,LEFT(E318,1)="T"),VLOOKUP(A318,'JOGOS BASE'!A:E,5,0),IF(K318=J318,VLOOKUP(J318,Substituicoes!J:R,7,0),IF(L318=J318,VLOOKUP(Escalacao!J318,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P318" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q318" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>81Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R318" s="28" t="str">
+        <f>VLOOKUP(A318,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" ht="30.6">
+      <c r="A319" s="15">
+        <v>8</v>
+      </c>
+      <c r="B319" s="46">
+        <v>10</v>
+      </c>
+      <c r="C319" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D319" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E319" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F319" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G319" s="46">
+        <v>668800</v>
+      </c>
+      <c r="H319" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I319" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>STENCE</v>
+      </c>
+      <c r="J319" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA10</v>
+      </c>
+      <c r="K319" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J319,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA10</v>
+      </c>
+      <c r="L319" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J319,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M319" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N319" s="29">
+        <f>IF(AND(K319=L319,LEFT(E319,1)="T"),VLOOKUP(A319,'JOGOS BASE'!A:E,4,0),IF(K319=J319,VLOOKUP(J319,Substituicoes!J:R,6,0),IF(L319=J319,VLOOKUP(Escalacao!J319,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O319" s="28">
+        <f>IF(AND(K319=L319,LEFT(E319,1)="T"),VLOOKUP(A319,'JOGOS BASE'!A:E,5,0),IF(K319=J319,VLOOKUP(J319,Substituicoes!J:R,7,0),IF(L319=J319,VLOOKUP(Escalacao!J319,Substituicoes!K:R,8,0),0)))</f>
+        <v>39</v>
+      </c>
+      <c r="P319" s="28">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="Q319" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>810Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R319" s="28" t="str">
+        <f>VLOOKUP(A319,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" ht="30.6">
+      <c r="A320" s="15">
+        <v>8</v>
+      </c>
+      <c r="B320" s="46">
+        <v>13</v>
+      </c>
+      <c r="C320" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D320" s="45" t="s">
+        <v>616</v>
+      </c>
+      <c r="E320" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F320" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G320" s="46">
+        <v>748842</v>
+      </c>
+      <c r="H320" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I320" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Ruan</v>
+      </c>
+      <c r="J320" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA13</v>
+      </c>
+      <c r="K320" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J320,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L320" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J320,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M320" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N320" s="29">
+        <f>IF(AND(K320=L320,LEFT(E320,1)="T"),VLOOKUP(A320,'JOGOS BASE'!A:E,4,0),IF(K320=J320,VLOOKUP(J320,Substituicoes!J:R,6,0),IF(L320=J320,VLOOKUP(Escalacao!J320,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O320" s="28">
+        <f>IF(AND(K320=L320,LEFT(E320,1)="T"),VLOOKUP(A320,'JOGOS BASE'!A:E,5,0),IF(K320=J320,VLOOKUP(J320,Substituicoes!J:R,7,0),IF(L320=J320,VLOOKUP(Escalacao!J320,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P320" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q320" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>813Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R320" s="28" t="str">
+        <f>VLOOKUP(A320,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" ht="30.6">
+      <c r="A321" s="15">
+        <v>8</v>
+      </c>
+      <c r="B321" s="46">
+        <v>14</v>
+      </c>
+      <c r="C321" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D321" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E321" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F321" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G321" s="46">
+        <v>709331</v>
+      </c>
+      <c r="H321" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I321" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Dimas</v>
+      </c>
+      <c r="J321" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA14</v>
+      </c>
+      <c r="K321" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J321,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L321" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J321,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M321" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N321" s="29">
+        <f>IF(AND(K321=L321,LEFT(E321,1)="T"),VLOOKUP(A321,'JOGOS BASE'!A:E,4,0),IF(K321=J321,VLOOKUP(J321,Substituicoes!J:R,6,0),IF(L321=J321,VLOOKUP(Escalacao!J321,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O321" s="28">
+        <f>IF(AND(K321=L321,LEFT(E321,1)="T"),VLOOKUP(A321,'JOGOS BASE'!A:E,5,0),IF(K321=J321,VLOOKUP(J321,Substituicoes!J:R,7,0),IF(L321=J321,VLOOKUP(Escalacao!J321,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P321" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q321" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>814Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R321" s="28" t="str">
+        <f>VLOOKUP(A321,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" ht="20.399999999999999">
+      <c r="A322" s="15">
+        <v>8</v>
+      </c>
+      <c r="B322" s="46">
+        <v>15</v>
+      </c>
+      <c r="C322" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="D322" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="E322" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F322" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G322" s="46">
+        <v>724360</v>
+      </c>
+      <c r="H322" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I322" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>BACURAU</v>
+      </c>
+      <c r="J322" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA15</v>
+      </c>
+      <c r="K322" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J322,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA15</v>
+      </c>
+      <c r="L322" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J322,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M322" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N322" s="29">
+        <f>IF(AND(K322=L322,LEFT(E322,1)="T"),VLOOKUP(A322,'JOGOS BASE'!A:E,4,0),IF(K322=J322,VLOOKUP(J322,Substituicoes!J:R,6,0),IF(L322=J322,VLOOKUP(Escalacao!J322,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O322" s="28">
+        <f>IF(AND(K322=L322,LEFT(E322,1)="T"),VLOOKUP(A322,'JOGOS BASE'!A:E,5,0),IF(K322=J322,VLOOKUP(J322,Substituicoes!J:R,7,0),IF(L322=J322,VLOOKUP(Escalacao!J322,Substituicoes!K:R,8,0),0)))</f>
+        <v>32</v>
+      </c>
+      <c r="P322" s="28">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="Q322" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>815Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R322" s="28" t="str">
+        <f>VLOOKUP(A322,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" ht="20.399999999999999">
+      <c r="A323" s="15">
+        <v>8</v>
+      </c>
+      <c r="B323" s="46">
+        <v>16</v>
+      </c>
+      <c r="C323" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D323" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E323" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F323" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G323" s="46">
+        <v>748572</v>
+      </c>
+      <c r="H323" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I323" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>ADRIANO</v>
+      </c>
+      <c r="J323" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA16</v>
+      </c>
+      <c r="K323" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J323,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA16</v>
+      </c>
+      <c r="L323" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J323,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M323" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N323" s="29">
+        <f>IF(AND(K323=L323,LEFT(E323,1)="T"),VLOOKUP(A323,'JOGOS BASE'!A:E,4,0),IF(K323=J323,VLOOKUP(J323,Substituicoes!J:R,6,0),IF(L323=J323,VLOOKUP(Escalacao!J323,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O323" s="28">
+        <f>IF(AND(K323=L323,LEFT(E323,1)="T"),VLOOKUP(A323,'JOGOS BASE'!A:E,5,0),IF(K323=J323,VLOOKUP(J323,Substituicoes!J:R,7,0),IF(L323=J323,VLOOKUP(Escalacao!J323,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P323" s="28">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="Q323" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>816Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R323" s="28" t="str">
+        <f>VLOOKUP(A323,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" ht="30.6">
+      <c r="A324" s="15">
+        <v>8</v>
+      </c>
+      <c r="B324" s="46">
+        <v>17</v>
+      </c>
+      <c r="C324" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D324" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E324" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F324" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G324" s="46">
+        <v>725771</v>
+      </c>
+      <c r="H324" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I324" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>JOÃO LENGE</v>
+      </c>
+      <c r="J324" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA17</v>
+      </c>
+      <c r="K324" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J324,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA17</v>
+      </c>
+      <c r="L324" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J324,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M324" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N324" s="29">
+        <f>IF(AND(K324=L324,LEFT(E324,1)="T"),VLOOKUP(A324,'JOGOS BASE'!A:E,4,0),IF(K324=J324,VLOOKUP(J324,Substituicoes!J:R,6,0),IF(L324=J324,VLOOKUP(Escalacao!J324,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O324" s="28">
+        <f>IF(AND(K324=L324,LEFT(E324,1)="T"),VLOOKUP(A324,'JOGOS BASE'!A:E,5,0),IF(K324=J324,VLOOKUP(J324,Substituicoes!J:R,7,0),IF(L324=J324,VLOOKUP(Escalacao!J324,Substituicoes!K:R,8,0),0)))</f>
+        <v>23</v>
+      </c>
+      <c r="P324" s="28">
+        <f t="shared" si="38"/>
+        <v>23</v>
+      </c>
+      <c r="Q324" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>817Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R324" s="28" t="str">
+        <f>VLOOKUP(A324,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" ht="30.6">
+      <c r="A325" s="15">
+        <v>8</v>
+      </c>
+      <c r="B325" s="46">
+        <v>19</v>
+      </c>
+      <c r="C325" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D325" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E325" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F325" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G325" s="46">
+        <v>400878</v>
+      </c>
+      <c r="H325" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I325" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>JÔ</v>
+      </c>
+      <c r="J325" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA19</v>
+      </c>
+      <c r="K325" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J325,Substituicoes!J:J,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="L325" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J325,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M325" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N325" s="29">
+        <f>IF(AND(K325=L325,LEFT(E325,1)="T"),VLOOKUP(A325,'JOGOS BASE'!A:E,4,0),IF(K325=J325,VLOOKUP(J325,Substituicoes!J:R,6,0),IF(L325=J325,VLOOKUP(Escalacao!J325,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O325" s="28">
+        <f>IF(AND(K325=L325,LEFT(E325,1)="T"),VLOOKUP(A325,'JOGOS BASE'!A:E,5,0),IF(K325=J325,VLOOKUP(J325,Substituicoes!J:R,7,0),IF(L325=J325,VLOOKUP(Escalacao!J325,Substituicoes!K:R,8,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P325" s="28">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q325" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>819Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R325" s="28" t="str">
+        <f>VLOOKUP(A325,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" ht="30.6">
+      <c r="A326" s="15">
+        <v>8</v>
+      </c>
+      <c r="B326" s="46">
+        <v>20</v>
+      </c>
+      <c r="C326" s="45" t="s">
+        <v>617</v>
+      </c>
+      <c r="D326" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="E326" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F326" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G326" s="46">
+        <v>451946</v>
+      </c>
+      <c r="H326" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I326" s="26" t="str">
+        <f t="shared" si="35"/>
+        <v>Rodolfo</v>
+      </c>
+      <c r="J326" s="26" t="str">
+        <f t="shared" si="36"/>
+        <v>8Sampaio Corrêa - MA20</v>
+      </c>
+      <c r="K326" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J326,Substituicoes!J:J,1,0),"SS")</f>
+        <v>8Sampaio Corrêa - MA20</v>
+      </c>
+      <c r="L326" s="27" t="str">
+        <f>IFERROR(VLOOKUP(J326,Substituicoes!K:K,1,0),"SS")</f>
+        <v>SS</v>
+      </c>
+      <c r="M326" s="28" t="b">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N326" s="29">
+        <f>IF(AND(K326=L326,LEFT(E326,1)="T"),VLOOKUP(A326,'JOGOS BASE'!A:E,4,0),IF(K326=J326,VLOOKUP(J326,Substituicoes!J:R,6,0),IF(L326=J326,VLOOKUP(Escalacao!J326,Substituicoes!K:R,7,0),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O326" s="28">
+        <f>IF(AND(K326=L326,LEFT(E326,1)="T"),VLOOKUP(A326,'JOGOS BASE'!A:E,5,0),IF(K326=J326,VLOOKUP(J326,Substituicoes!J:R,7,0),IF(L326=J326,VLOOKUP(Escalacao!J326,Substituicoes!K:R,8,0),0)))</f>
+        <v>53</v>
+      </c>
+      <c r="P326" s="28">
+        <f t="shared" si="38"/>
+        <v>53</v>
+      </c>
+      <c r="Q326" s="28" t="str">
+        <f t="shared" si="39"/>
+        <v>820Sampaio Corrêa - MA</v>
+      </c>
+      <c r="R326" s="28" t="str">
+        <f>VLOOKUP(A326,'JOGOS BASE'!A:H,8)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
   </sheetData>
@@ -18770,7 +24077,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18833,7 +24140,7 @@
         <v>167</v>
       </c>
       <c r="H2" s="28" t="str">
-        <f>G2&amp;" - "&amp;B2&amp;" x "&amp;C2</f>
+        <f t="shared" ref="H2:H9" si="0">G2&amp;" - "&amp;B2&amp;" x "&amp;C2</f>
         <v>11.01.2025 - Imperatriz - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
@@ -18860,7 +24167,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="28" t="str">
-        <f>G3&amp;" - "&amp;B3&amp;" x "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>12.01.2025 - Moto Club - MA x Maranhão - MA</v>
       </c>
     </row>
@@ -18887,7 +24194,7 @@
         <v>171</v>
       </c>
       <c r="H4" s="28" t="str">
-        <f>G4&amp;" - "&amp;B4&amp;" x "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>12.01.2025 - Pinheiro - MA x Viana - MA</v>
       </c>
     </row>
@@ -18916,7 +24223,7 @@
         <v>385</v>
       </c>
       <c r="H5" s="28" t="str">
-        <f>G5&amp;" - "&amp;B5&amp;" x "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>15.01.2025 - Pinheiro - MA x Maranhão - MA</v>
       </c>
     </row>
@@ -18944,7 +24251,7 @@
         <v>385</v>
       </c>
       <c r="H6" s="28" t="str">
-        <f>G6&amp;" - "&amp;B6&amp;" x "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>15.01.2025 - IAPE - MA x Sampaio Corrêa - MA</v>
       </c>
     </row>
@@ -18973,29 +24280,67 @@
         <v>385</v>
       </c>
       <c r="H7" s="28" t="str">
-        <f>G7&amp;" - "&amp;B7&amp;" x "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="19">
+        <f>45+3</f>
+        <v>48</v>
+      </c>
+      <c r="E8" s="19">
+        <f>45+6</f>
+        <v>51</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>575</v>
+      </c>
+      <c r="H8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="19">
+        <f>45+5</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="19">
+        <f>45+8</f>
+        <v>53</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="H9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="18"/>
@@ -19084,10 +24429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930DBC58-DC47-47FD-B617-C0EF9E401D47}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19190,7 +24535,7 @@
       </c>
       <c r="M2" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N2" s="22" t="str">
         <f>VLOOKUP(A2,Escalacao!A:R,18,0)</f>
@@ -19240,7 +24585,7 @@
       </c>
       <c r="M3" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="22" t="str">
         <f>VLOOKUP(A3,Escalacao!A:R,18,0)</f>
@@ -19290,7 +24635,7 @@
       </c>
       <c r="M4" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="22" t="str">
         <f>VLOOKUP(A4,Escalacao!A:R,18,0)</f>
@@ -19790,7 +25135,7 @@
       </c>
       <c r="M14" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K14)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" s="22" t="str">
         <f>VLOOKUP(A14,Escalacao!A:R,18,0)</f>
@@ -19840,7 +25185,7 @@
       </c>
       <c r="M15" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="22" t="str">
         <f>VLOOKUP(A15,Escalacao!A:R,18,0)</f>
@@ -19990,7 +25335,7 @@
       </c>
       <c r="M18" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K18)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="22" t="str">
         <f>VLOOKUP(A18,Escalacao!A:R,18,0)</f>
@@ -20040,7 +25385,7 @@
       </c>
       <c r="M19" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K19)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="22" t="str">
         <f>VLOOKUP(A19,Escalacao!A:R,18,0)</f>
@@ -20090,7 +25435,7 @@
       </c>
       <c r="M20" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K20)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="22" t="str">
         <f>VLOOKUP(A20,Escalacao!A:R,18,0)</f>
@@ -20140,7 +25485,7 @@
       </c>
       <c r="M21" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="22" t="str">
         <f>VLOOKUP(A21,Escalacao!A:R,18,0)</f>
@@ -20190,7 +25535,7 @@
       </c>
       <c r="M22" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K22)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="22" t="str">
         <f>VLOOKUP(A22,Escalacao!A:R,18,0)</f>
@@ -20240,7 +25585,7 @@
       </c>
       <c r="M23" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="22" t="str">
         <f>VLOOKUP(A23,Escalacao!A:R,18,0)</f>
@@ -20290,7 +25635,7 @@
       </c>
       <c r="M24" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" s="22" t="str">
         <f>VLOOKUP(A24,Escalacao!A:R,18,0)</f>
@@ -20640,7 +25985,7 @@
       </c>
       <c r="M31" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="22" t="str">
         <f>VLOOKUP(A31,Escalacao!A:R,18,0)</f>
@@ -20940,7 +26285,7 @@
       </c>
       <c r="M37" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K37)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" s="22" t="str">
         <f>VLOOKUP(A37,Escalacao!A:R,18,0)</f>
@@ -20990,7 +26335,7 @@
       </c>
       <c r="M38" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="22" t="str">
         <f>VLOOKUP(A38,Escalacao!A:R,18,0)</f>
@@ -21040,7 +26385,7 @@
       </c>
       <c r="M39" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K39)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" s="22" t="str">
         <f>VLOOKUP(A39,Escalacao!A:R,18,0)</f>
@@ -21090,7 +26435,7 @@
       </c>
       <c r="M40" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K40)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" s="22" t="str">
         <f>VLOOKUP(A40,Escalacao!A:R,18,0)</f>
@@ -21140,14 +26485,14 @@
       </c>
       <c r="M41" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K41)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="22" t="str">
         <f>VLOOKUP(A41,Escalacao!A:R,18,0)</f>
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="13.8" customHeight="1">
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="7">
         <v>6</v>
       </c>
@@ -21190,12 +26535,1926 @@
       </c>
       <c r="M42" s="22">
         <f>COUNTIF(Escalacao!G:G,Cartoes!K42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" s="22" t="str">
         <f>VLOOKUP(A42,Escalacao!A:R,18,0)</f>
         <v>15.01.2025 - Tuntum - MA x Imperatriz - MA</v>
       </c>
+    </row>
+    <row r="43" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A43" s="7">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="8">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="22" t="str">
+        <f>VLOOKUP(A43,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H43" s="14">
+        <v>1</v>
+      </c>
+      <c r="I43" s="14">
+        <v>0</v>
+      </c>
+      <c r="J43" s="22" t="str">
+        <f t="shared" ref="J43:J51" si="6">A43&amp;D43&amp;F43</f>
+        <v>79Imperatriz - MA</v>
+      </c>
+      <c r="K43" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J43,Escalacao!Q:Q,0))</f>
+        <v>637641</v>
+      </c>
+      <c r="L43" s="22" t="str">
+        <f>VLOOKUP(K43,Escalacao!G:I,3,0)</f>
+        <v>Lussandro</v>
+      </c>
+      <c r="M43" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K43)</f>
+        <v>3</v>
+      </c>
+      <c r="N43" s="22" t="str">
+        <f>VLOOKUP(A43,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A44" s="7">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="22" t="str">
+        <f>VLOOKUP(A44,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>0</v>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>73Imperatriz - MA</v>
+      </c>
+      <c r="K44" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J44,Escalacao!Q:Q,0))</f>
+        <v>393115</v>
+      </c>
+      <c r="L44" s="22" t="str">
+        <f>VLOOKUP(K44,Escalacao!G:I,3,0)</f>
+        <v>Andre Penalva</v>
+      </c>
+      <c r="M44" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K44)</f>
+        <v>3</v>
+      </c>
+      <c r="N44" s="22" t="str">
+        <f>VLOOKUP(A44,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A45" s="7">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="8">
+        <v>10</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="22" t="str">
+        <f>VLOOKUP(A45,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H45" s="14">
+        <v>1</v>
+      </c>
+      <c r="I45" s="14">
+        <v>0</v>
+      </c>
+      <c r="J45" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>710Imperatriz - MA</v>
+      </c>
+      <c r="K45" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J45,Escalacao!Q:Q,0))</f>
+        <v>293426</v>
+      </c>
+      <c r="L45" s="22" t="str">
+        <f>VLOOKUP(K45,Escalacao!G:I,3,0)</f>
+        <v>Henrique S ...</v>
+      </c>
+      <c r="M45" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K45)</f>
+        <v>3</v>
+      </c>
+      <c r="N45" s="22" t="str">
+        <f>VLOOKUP(A45,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A46" s="7">
+        <v>7</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8">
+        <v>5</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="22" t="str">
+        <f>VLOOKUP(A46,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H46" s="14">
+        <v>1</v>
+      </c>
+      <c r="I46" s="14">
+        <v>0</v>
+      </c>
+      <c r="J46" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>75Imperatriz - MA</v>
+      </c>
+      <c r="K46" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J46,Escalacao!Q:Q,0))</f>
+        <v>345029</v>
+      </c>
+      <c r="L46" s="22" t="str">
+        <f>VLOOKUP(K46,Escalacao!G:I,3,0)</f>
+        <v>Jeferson P ...</v>
+      </c>
+      <c r="M46" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K46)</f>
+        <v>3</v>
+      </c>
+      <c r="N46" s="22" t="str">
+        <f>VLOOKUP(A46,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A47" s="7">
+        <v>7</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="8">
+        <v>8</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="22" t="str">
+        <f>VLOOKUP(A47,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1</v>
+      </c>
+      <c r="I47" s="14">
+        <v>0</v>
+      </c>
+      <c r="J47" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>78Imperatriz - MA</v>
+      </c>
+      <c r="K47" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J47,Escalacao!Q:Q,0))</f>
+        <v>348355</v>
+      </c>
+      <c r="L47" s="22" t="str">
+        <f>VLOOKUP(K47,Escalacao!G:I,3,0)</f>
+        <v>Felipe Macena</v>
+      </c>
+      <c r="M47" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K47)</f>
+        <v>3</v>
+      </c>
+      <c r="N47" s="22" t="str">
+        <f>VLOOKUP(A47,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A48" s="7">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="8">
+        <v>22</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" s="22" t="str">
+        <f>VLOOKUP(A48,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H48" s="14">
+        <v>1</v>
+      </c>
+      <c r="I48" s="14">
+        <v>0</v>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>722Imperatriz - MA</v>
+      </c>
+      <c r="K48" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J48,Escalacao!Q:Q,0))</f>
+        <v>762150</v>
+      </c>
+      <c r="L48" s="22" t="str">
+        <f>VLOOKUP(K48,Escalacao!G:I,3,0)</f>
+        <v>Junior</v>
+      </c>
+      <c r="M48" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K48)</f>
+        <v>3</v>
+      </c>
+      <c r="N48" s="22" t="str">
+        <f>VLOOKUP(A48,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A49" s="7">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="8">
+        <v>6</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" s="22" t="str">
+        <f>VLOOKUP(A49,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H49" s="14">
+        <v>1</v>
+      </c>
+      <c r="I49" s="14">
+        <v>0</v>
+      </c>
+      <c r="J49" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>76Pinheiro - MA</v>
+      </c>
+      <c r="K49" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J49,Escalacao!Q:Q,0))</f>
+        <v>637743</v>
+      </c>
+      <c r="L49" s="22" t="str">
+        <f>VLOOKUP(K49,Escalacao!G:I,3,0)</f>
+        <v>Gabriel</v>
+      </c>
+      <c r="M49" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K49)</f>
+        <v>3</v>
+      </c>
+      <c r="N49" s="22" t="str">
+        <f>VLOOKUP(A49,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A50" s="7">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G50" s="22" t="str">
+        <f>VLOOKUP(A50,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1</v>
+      </c>
+      <c r="I50" s="14">
+        <v>0</v>
+      </c>
+      <c r="J50" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>71Pinheiro - MA</v>
+      </c>
+      <c r="K50" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J50,Escalacao!Q:Q,0))</f>
+        <v>530809</v>
+      </c>
+      <c r="L50" s="22" t="str">
+        <f>VLOOKUP(K50,Escalacao!G:I,3,0)</f>
+        <v>Mateus</v>
+      </c>
+      <c r="M50" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K50)</f>
+        <v>3</v>
+      </c>
+      <c r="N50" s="22" t="str">
+        <f>VLOOKUP(A50,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A51" s="7">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="8">
+        <v>11</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="G51" s="22" t="str">
+        <f>VLOOKUP(A51,'JOGOS BASE'!A:F,6,)</f>
+        <v>Jose Marcos Rocha</v>
+      </c>
+      <c r="H51" s="14">
+        <v>1</v>
+      </c>
+      <c r="I51" s="14">
+        <v>0</v>
+      </c>
+      <c r="J51" s="22" t="str">
+        <f t="shared" si="6"/>
+        <v>711Pinheiro - MA</v>
+      </c>
+      <c r="K51" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J51,Escalacao!Q:Q,0))</f>
+        <v>612866</v>
+      </c>
+      <c r="L51" s="22" t="str">
+        <f>VLOOKUP(K51,Escalacao!G:I,3,0)</f>
+        <v>Joao Pedro</v>
+      </c>
+      <c r="M51" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K51)</f>
+        <v>3</v>
+      </c>
+      <c r="N51" s="22" t="str">
+        <f>VLOOKUP(A51,Escalacao!A:R,18,0)</f>
+        <v>18.01.2025 - Imperatriz - MA x Pinheiro - MA</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A52" s="7">
+        <v>8</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="46">
+        <v>7</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>619</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" s="22" t="str">
+        <f>VLOOKUP(A52,'JOGOS BASE'!A:F,6,)</f>
+        <v>Ranilton Oliveira de Sousa</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1</v>
+      </c>
+      <c r="I52" s="14">
+        <v>0</v>
+      </c>
+      <c r="J52" s="22" t="str">
+        <f t="shared" ref="J52:J55" si="7">A52&amp;D52&amp;F52</f>
+        <v>87Viana - MA</v>
+      </c>
+      <c r="K52" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J52,Escalacao!Q:Q,0))</f>
+        <v>590716</v>
+      </c>
+      <c r="L52" s="22" t="str">
+        <f>VLOOKUP(K52,Escalacao!G:I,3,0)</f>
+        <v>arisco</v>
+      </c>
+      <c r="M52" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K52)</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="22" t="str">
+        <f>VLOOKUP(A52,Escalacao!A:R,18,0)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A53" s="7">
+        <v>8</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="46">
+        <v>3</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>620</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" s="22" t="str">
+        <f>VLOOKUP(A53,'JOGOS BASE'!A:F,6,)</f>
+        <v>Ranilton Oliveira de Sousa</v>
+      </c>
+      <c r="H53" s="14">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>83Viana - MA</v>
+      </c>
+      <c r="K53" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J53,Escalacao!Q:Q,0))</f>
+        <v>396008</v>
+      </c>
+      <c r="L53" s="22" t="str">
+        <f>VLOOKUP(K53,Escalacao!G:I,3,0)</f>
+        <v>Brener Bessa</v>
+      </c>
+      <c r="M53" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K53)</f>
+        <v>2</v>
+      </c>
+      <c r="N53" s="22" t="str">
+        <f>VLOOKUP(A53,Escalacao!A:R,18,0)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A54" s="7">
+        <v>8</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="51">
+        <v>10</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="22" t="str">
+        <f>VLOOKUP(A54,'JOGOS BASE'!A:F,6,)</f>
+        <v>Ranilton Oliveira de Sousa</v>
+      </c>
+      <c r="H54" s="14">
+        <v>1</v>
+      </c>
+      <c r="I54" s="14">
+        <v>0</v>
+      </c>
+      <c r="J54" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>810Sampaio Corrêa - MA</v>
+      </c>
+      <c r="K54" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J54,Escalacao!Q:Q,0))</f>
+        <v>668800</v>
+      </c>
+      <c r="L54" s="22" t="str">
+        <f>VLOOKUP(K54,Escalacao!G:I,3,0)</f>
+        <v>STENCE</v>
+      </c>
+      <c r="M54" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K54)</f>
+        <v>3</v>
+      </c>
+      <c r="N54" s="22" t="str">
+        <f>VLOOKUP(A54,Escalacao!A:R,18,0)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A55" s="7">
+        <v>8</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="51">
+        <v>16</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="22" t="str">
+        <f>VLOOKUP(A55,'JOGOS BASE'!A:F,6,)</f>
+        <v>Ranilton Oliveira de Sousa</v>
+      </c>
+      <c r="H55" s="14">
+        <v>1</v>
+      </c>
+      <c r="I55" s="14">
+        <v>0</v>
+      </c>
+      <c r="J55" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v>816Sampaio Corrêa - MA</v>
+      </c>
+      <c r="K55" s="22">
+        <f>INDEX(Escalacao!G:G,MATCH(Cartoes!J55,Escalacao!Q:Q,0))</f>
+        <v>748572</v>
+      </c>
+      <c r="L55" s="22" t="str">
+        <f>VLOOKUP(K55,Escalacao!G:I,3,0)</f>
+        <v>ADRIANO</v>
+      </c>
+      <c r="M55" s="22">
+        <f>COUNTIF(Escalacao!G:G,Cartoes!K55)</f>
+        <v>3</v>
+      </c>
+      <c r="N55" s="22" t="str">
+        <f>VLOOKUP(A55,Escalacao!A:R,18,0)</f>
+        <v>19.01.2025 - Viana - MA x Sampaio Corrêa - MA</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+    </row>
+    <row r="58" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+    </row>
+    <row r="59" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+    </row>
+    <row r="60" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+    </row>
+    <row r="61" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+    </row>
+    <row r="62" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+    </row>
+    <row r="64" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+    </row>
+    <row r="65" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+    </row>
+    <row r="66" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+    </row>
+    <row r="67" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+    </row>
+    <row r="69" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+    </row>
+    <row r="70" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+    </row>
+    <row r="71" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+    </row>
+    <row r="74" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+    </row>
+    <row r="75" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+    </row>
+    <row r="76" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+    </row>
+    <row r="77" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+    </row>
+    <row r="78" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+    </row>
+    <row r="79" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+    </row>
+    <row r="80" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+    </row>
+    <row r="81" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="22"/>
+    </row>
+    <row r="82" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+    </row>
+    <row r="83" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="22"/>
+    </row>
+    <row r="84" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="22"/>
+    </row>
+    <row r="85" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+    </row>
+    <row r="86" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+    </row>
+    <row r="87" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+    </row>
+    <row r="88" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="22"/>
+    </row>
+    <row r="89" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+    </row>
+    <row r="90" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+    </row>
+    <row r="91" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+    </row>
+    <row r="92" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="22"/>
+    </row>
+    <row r="93" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+    </row>
+    <row r="94" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="22"/>
+    </row>
+    <row r="95" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+    </row>
+    <row r="96" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+    </row>
+    <row r="97" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+    </row>
+    <row r="98" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+    </row>
+    <row r="99" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+    </row>
+    <row r="100" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="22"/>
+    </row>
+    <row r="101" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+    </row>
+    <row r="102" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+    </row>
+    <row r="103" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+    </row>
+    <row r="104" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+    </row>
+    <row r="105" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+    </row>
+    <row r="106" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+    </row>
+    <row r="107" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+    </row>
+    <row r="108" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+    </row>
+    <row r="109" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+    </row>
+    <row r="110" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+    </row>
+    <row r="111" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+    </row>
+    <row r="112" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+    </row>
+    <row r="113" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+    </row>
+    <row r="114" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+    </row>
+    <row r="115" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+    </row>
+    <row r="116" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+    </row>
+    <row r="117" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+    </row>
+    <row r="118" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+    </row>
+    <row r="119" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+    </row>
+    <row r="120" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+    </row>
+    <row r="121" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+    </row>
+    <row r="122" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+    </row>
+    <row r="123" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+    </row>
+    <row r="124" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+    </row>
+    <row r="125" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+    </row>
+    <row r="126" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22"/>
+    </row>
+    <row r="127" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+    </row>
+    <row r="128" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22"/>
+    </row>
+    <row r="129" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+    </row>
+    <row r="130" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="22"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="22"/>
+    </row>
+    <row r="131" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="22"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+    </row>
+    <row r="132" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="22"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
+    </row>
+    <row r="133" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="22"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+    </row>
+    <row r="134" spans="1:14" ht="13.8" customHeight="1">
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="22"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -21204,10 +28463,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E166D-6A5A-45E2-833F-D0524957A1BA}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64:R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25019,6 +32278,1094 @@
         <v>41</v>
       </c>
     </row>
+    <row r="57" spans="1:18" ht="20.399999999999999">
+      <c r="A57" s="15">
+        <v>7</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="34">
+        <f t="shared" ref="G57:G64" si="60">VALUE(LEFT(B57,2))</f>
+        <v>24</v>
+      </c>
+      <c r="H57" s="35">
+        <f t="shared" ref="H57:H64" si="61">IF(VALUE(LEFT(E57,2))&lt;10,VALUE(LEFT(E57,1)),VALUE(LEFT(E57,2)))</f>
+        <v>22</v>
+      </c>
+      <c r="I57" s="35">
+        <f t="shared" ref="I57:I64" si="62">IF(VALUE(LEFT(F57,2))&lt;10,VALUE(LEFT(F57,1)),VALUE(LEFT(F57,2)))</f>
+        <v>9</v>
+      </c>
+      <c r="J57" s="36" t="str">
+        <f t="shared" ref="J57:J64" si="63">$A57&amp;$D57&amp;H57</f>
+        <v>7Imperatriz - MA22</v>
+      </c>
+      <c r="K57" s="36" t="str">
+        <f t="shared" ref="K57:K64" si="64">$A57&amp;$D57&amp;I57</f>
+        <v>7Imperatriz - MA9</v>
+      </c>
+      <c r="L57" s="37">
+        <f>VLOOKUP(A57,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M57" s="37">
+        <f>VLOOKUP(A57,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N57" s="38" t="str">
+        <f t="shared" ref="N57:N64" si="65">LEFT(C57,1)</f>
+        <v>2</v>
+      </c>
+      <c r="O57" s="37">
+        <f t="shared" ref="O57:O64" si="66">IF(N57="1",L57-G57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="37">
+        <f t="shared" ref="P57:P64" si="67">IF(N57="1",M57,IF(OR(N57="2",N57="I"),M57-G57,0))</f>
+        <v>27</v>
+      </c>
+      <c r="Q57" s="37">
+        <f t="shared" ref="Q57:Q64" si="68">IF(N57="1",G57,L57)</f>
+        <v>48</v>
+      </c>
+      <c r="R57" s="37">
+        <f t="shared" ref="R57:R64" si="69">IF(OR(N57="1",N57="I"),0,G57)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="20.399999999999999">
+      <c r="A58" s="15">
+        <v>7</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" s="34">
+        <f t="shared" si="60"/>
+        <v>24</v>
+      </c>
+      <c r="H58" s="35">
+        <f t="shared" si="61"/>
+        <v>21</v>
+      </c>
+      <c r="I58" s="35">
+        <f t="shared" si="62"/>
+        <v>19</v>
+      </c>
+      <c r="J58" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Imperatriz - MA21</v>
+      </c>
+      <c r="K58" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Imperatriz - MA19</v>
+      </c>
+      <c r="L58" s="37">
+        <f>VLOOKUP(A58,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M58" s="37">
+        <f>VLOOKUP(A58,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N58" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="O58" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="37">
+        <f t="shared" si="67"/>
+        <v>27</v>
+      </c>
+      <c r="Q58" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R58" s="37">
+        <f t="shared" si="69"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="20.399999999999999">
+      <c r="A59" s="15">
+        <v>7</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="34">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
+        <f t="shared" si="61"/>
+        <v>11</v>
+      </c>
+      <c r="I59" s="35">
+        <f t="shared" si="62"/>
+        <v>5</v>
+      </c>
+      <c r="J59" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Imperatriz - MA11</v>
+      </c>
+      <c r="K59" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Imperatriz - MA5</v>
+      </c>
+      <c r="L59" s="37">
+        <f>VLOOKUP(A59,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M59" s="37">
+        <f>VLOOKUP(A59,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N59" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>I</v>
+      </c>
+      <c r="O59" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="37">
+        <f t="shared" si="67"/>
+        <v>51</v>
+      </c>
+      <c r="Q59" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R59" s="37">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="20.399999999999999">
+      <c r="A60" s="15">
+        <v>7</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" s="34">
+        <f t="shared" si="60"/>
+        <v>30</v>
+      </c>
+      <c r="H60" s="35">
+        <f t="shared" si="61"/>
+        <v>14</v>
+      </c>
+      <c r="I60" s="35">
+        <f t="shared" si="62"/>
+        <v>10</v>
+      </c>
+      <c r="J60" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Imperatriz - MA14</v>
+      </c>
+      <c r="K60" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Imperatriz - MA10</v>
+      </c>
+      <c r="L60" s="37">
+        <f>VLOOKUP(A60,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M60" s="37">
+        <f>VLOOKUP(A60,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N60" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="O60" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="37">
+        <f t="shared" si="67"/>
+        <v>21</v>
+      </c>
+      <c r="Q60" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R60" s="37">
+        <f t="shared" si="69"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="20.399999999999999">
+      <c r="A61" s="15">
+        <v>7</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="G61" s="34">
+        <f t="shared" si="60"/>
+        <v>30</v>
+      </c>
+      <c r="H61" s="35">
+        <f t="shared" si="61"/>
+        <v>13</v>
+      </c>
+      <c r="I61" s="35">
+        <f t="shared" si="62"/>
+        <v>3</v>
+      </c>
+      <c r="J61" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Imperatriz - MA13</v>
+      </c>
+      <c r="K61" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Imperatriz - MA3</v>
+      </c>
+      <c r="L61" s="37">
+        <f>VLOOKUP(A61,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M61" s="37">
+        <f>VLOOKUP(A61,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N61" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="O61" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P61" s="37">
+        <f t="shared" si="67"/>
+        <v>21</v>
+      </c>
+      <c r="Q61" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R61" s="37">
+        <f t="shared" si="69"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="20.399999999999999">
+      <c r="A62" s="15">
+        <v>7</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="G62" s="34">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="35">
+        <f t="shared" si="61"/>
+        <v>15</v>
+      </c>
+      <c r="I62" s="35">
+        <f t="shared" si="62"/>
+        <v>6</v>
+      </c>
+      <c r="J62" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Pinheiro - MA15</v>
+      </c>
+      <c r="K62" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Pinheiro - MA6</v>
+      </c>
+      <c r="L62" s="37">
+        <f>VLOOKUP(A62,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M62" s="37">
+        <f>VLOOKUP(A62,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N62" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>I</v>
+      </c>
+      <c r="O62" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="37">
+        <f t="shared" si="67"/>
+        <v>51</v>
+      </c>
+      <c r="Q62" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R62" s="37">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="20.399999999999999">
+      <c r="A63" s="15">
+        <v>7</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G63" s="34">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="35">
+        <f t="shared" si="61"/>
+        <v>18</v>
+      </c>
+      <c r="I63" s="35">
+        <f t="shared" si="62"/>
+        <v>11</v>
+      </c>
+      <c r="J63" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Pinheiro - MA18</v>
+      </c>
+      <c r="K63" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Pinheiro - MA11</v>
+      </c>
+      <c r="L63" s="37">
+        <f>VLOOKUP(A63,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M63" s="37">
+        <f>VLOOKUP(A63,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N63" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>I</v>
+      </c>
+      <c r="O63" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="37">
+        <f t="shared" si="67"/>
+        <v>51</v>
+      </c>
+      <c r="Q63" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R63" s="37">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="20.399999999999999">
+      <c r="A64" s="15">
+        <v>7</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="G64" s="34">
+        <f t="shared" si="60"/>
+        <v>30</v>
+      </c>
+      <c r="H64" s="35">
+        <f t="shared" si="61"/>
+        <v>17</v>
+      </c>
+      <c r="I64" s="35">
+        <f t="shared" si="62"/>
+        <v>9</v>
+      </c>
+      <c r="J64" s="36" t="str">
+        <f t="shared" si="63"/>
+        <v>7Pinheiro - MA17</v>
+      </c>
+      <c r="K64" s="36" t="str">
+        <f t="shared" si="64"/>
+        <v>7Pinheiro - MA9</v>
+      </c>
+      <c r="L64" s="37">
+        <f>VLOOKUP(A64,'JOGOS BASE'!A:E,4,0)</f>
+        <v>48</v>
+      </c>
+      <c r="M64" s="37">
+        <f>VLOOKUP(A64,'JOGOS BASE'!A:E,5,0)</f>
+        <v>51</v>
+      </c>
+      <c r="N64" s="38" t="str">
+        <f t="shared" si="65"/>
+        <v>2</v>
+      </c>
+      <c r="O64" s="37">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="37">
+        <f t="shared" si="67"/>
+        <v>21</v>
+      </c>
+      <c r="Q64" s="37">
+        <f t="shared" si="68"/>
+        <v>48</v>
+      </c>
+      <c r="R64" s="37">
+        <f t="shared" si="69"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="20.399999999999999">
+      <c r="A65" s="15">
+        <v>8</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="G65" s="34">
+        <f t="shared" ref="G65:G72" si="70">VALUE(LEFT(B65,2))</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="35">
+        <f t="shared" ref="H65:H72" si="71">IF(VALUE(LEFT(E65,2))&lt;10,VALUE(LEFT(E65,1)),VALUE(LEFT(E65,2)))</f>
+        <v>15</v>
+      </c>
+      <c r="I65" s="35">
+        <f t="shared" ref="I65:I72" si="72">IF(VALUE(LEFT(F65,2))&lt;10,VALUE(LEFT(F65,1)),VALUE(LEFT(F65,2)))</f>
+        <v>10</v>
+      </c>
+      <c r="J65" s="36" t="str">
+        <f t="shared" ref="J65:J72" si="73">$A65&amp;$D65&amp;H65</f>
+        <v>8Viana - MA15</v>
+      </c>
+      <c r="K65" s="36" t="str">
+        <f t="shared" ref="K65:K72" si="74">$A65&amp;$D65&amp;I65</f>
+        <v>8Viana - MA10</v>
+      </c>
+      <c r="L65" s="37">
+        <f>VLOOKUP(A65,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M65" s="37">
+        <f>VLOOKUP(A65,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N65" s="38" t="str">
+        <f t="shared" ref="N65:N72" si="75">LEFT(C65,1)</f>
+        <v>I</v>
+      </c>
+      <c r="O65" s="37">
+        <f t="shared" ref="O65:O72" si="76">IF(N65="1",L65-G65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="37">
+        <f t="shared" ref="P65:P72" si="77">IF(N65="1",M65,IF(OR(N65="2",N65="I"),M65-G65,0))</f>
+        <v>53</v>
+      </c>
+      <c r="Q65" s="37">
+        <f t="shared" ref="Q65:Q72" si="78">IF(N65="1",G65,L65)</f>
+        <v>50</v>
+      </c>
+      <c r="R65" s="37">
+        <f t="shared" ref="R65:R72" si="79">IF(OR(N65="1",N65="I"),0,G65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="20.399999999999999">
+      <c r="A66" s="15">
+        <v>8</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="G66" s="34">
+        <f t="shared" si="70"/>
+        <v>42</v>
+      </c>
+      <c r="H66" s="35">
+        <f t="shared" si="71"/>
+        <v>13</v>
+      </c>
+      <c r="I66" s="35">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+      <c r="J66" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Viana - MA13</v>
+      </c>
+      <c r="K66" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Viana - MA7</v>
+      </c>
+      <c r="L66" s="37">
+        <f>VLOOKUP(A66,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M66" s="37">
+        <f>VLOOKUP(A66,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N66" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="O66" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="37">
+        <f t="shared" si="77"/>
+        <v>11</v>
+      </c>
+      <c r="Q66" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R66" s="37">
+        <f t="shared" si="79"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="20.399999999999999">
+      <c r="A67" s="15">
+        <v>8</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>595</v>
+      </c>
+      <c r="G67" s="34">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="35">
+        <f t="shared" si="71"/>
+        <v>20</v>
+      </c>
+      <c r="I67" s="35">
+        <f t="shared" si="72"/>
+        <v>9</v>
+      </c>
+      <c r="J67" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Sampaio Corrêa - MA20</v>
+      </c>
+      <c r="K67" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Sampaio Corrêa - MA9</v>
+      </c>
+      <c r="L67" s="37">
+        <f>VLOOKUP(A67,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M67" s="37">
+        <f>VLOOKUP(A67,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N67" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>I</v>
+      </c>
+      <c r="O67" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="37">
+        <f t="shared" si="77"/>
+        <v>53</v>
+      </c>
+      <c r="Q67" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R67" s="37">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="20.399999999999999">
+      <c r="A68" s="15">
+        <v>8</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>596</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="34">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="35">
+        <f t="shared" si="71"/>
+        <v>16</v>
+      </c>
+      <c r="I68" s="35">
+        <f t="shared" si="72"/>
+        <v>11</v>
+      </c>
+      <c r="J68" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Sampaio Corrêa - MA16</v>
+      </c>
+      <c r="K68" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Sampaio Corrêa - MA11</v>
+      </c>
+      <c r="L68" s="37">
+        <f>VLOOKUP(A68,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M68" s="37">
+        <f>VLOOKUP(A68,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N68" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>I</v>
+      </c>
+      <c r="O68" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="37">
+        <f t="shared" si="77"/>
+        <v>53</v>
+      </c>
+      <c r="Q68" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R68" s="37">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="20.399999999999999">
+      <c r="A69" s="15">
+        <v>8</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="G69" s="34">
+        <f t="shared" si="70"/>
+        <v>14</v>
+      </c>
+      <c r="H69" s="35">
+        <f t="shared" si="71"/>
+        <v>10</v>
+      </c>
+      <c r="I69" s="35">
+        <f t="shared" si="72"/>
+        <v>5</v>
+      </c>
+      <c r="J69" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Sampaio Corrêa - MA10</v>
+      </c>
+      <c r="K69" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Sampaio Corrêa - MA5</v>
+      </c>
+      <c r="L69" s="37">
+        <f>VLOOKUP(A69,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M69" s="37">
+        <f>VLOOKUP(A69,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N69" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="O69" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="37">
+        <f t="shared" si="77"/>
+        <v>39</v>
+      </c>
+      <c r="Q69" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R69" s="37">
+        <f t="shared" si="79"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="20.399999999999999">
+      <c r="A70" s="15">
+        <v>8</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="G70" s="34">
+        <f t="shared" si="70"/>
+        <v>21</v>
+      </c>
+      <c r="H70" s="35">
+        <f t="shared" si="71"/>
+        <v>15</v>
+      </c>
+      <c r="I70" s="35">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="J70" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Sampaio Corrêa - MA15</v>
+      </c>
+      <c r="K70" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Sampaio Corrêa - MA8</v>
+      </c>
+      <c r="L70" s="37">
+        <f>VLOOKUP(A70,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M70" s="37">
+        <f>VLOOKUP(A70,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N70" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="O70" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="37">
+        <f t="shared" si="77"/>
+        <v>32</v>
+      </c>
+      <c r="Q70" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R70" s="37">
+        <f t="shared" si="79"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="20.399999999999999">
+      <c r="A71" s="15">
+        <v>8</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="G71" s="34">
+        <f t="shared" si="70"/>
+        <v>30</v>
+      </c>
+      <c r="H71" s="35">
+        <f t="shared" si="71"/>
+        <v>17</v>
+      </c>
+      <c r="I71" s="35">
+        <f t="shared" si="72"/>
+        <v>7</v>
+      </c>
+      <c r="J71" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Sampaio Corrêa - MA17</v>
+      </c>
+      <c r="K71" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Sampaio Corrêa - MA7</v>
+      </c>
+      <c r="L71" s="37">
+        <f>VLOOKUP(A71,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M71" s="37">
+        <f>VLOOKUP(A71,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N71" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="O71" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="37">
+        <f t="shared" si="77"/>
+        <v>23</v>
+      </c>
+      <c r="Q71" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R71" s="37">
+        <f t="shared" si="79"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="20.399999999999999">
+      <c r="A72" s="15">
+        <v>8</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>602</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="G72" s="34">
+        <f t="shared" si="70"/>
+        <v>17</v>
+      </c>
+      <c r="H72" s="35">
+        <f t="shared" si="71"/>
+        <v>14</v>
+      </c>
+      <c r="I72" s="35">
+        <f t="shared" si="72"/>
+        <v>8</v>
+      </c>
+      <c r="J72" s="36" t="str">
+        <f t="shared" si="73"/>
+        <v>8Viana - MA14</v>
+      </c>
+      <c r="K72" s="36" t="str">
+        <f t="shared" si="74"/>
+        <v>8Viana - MA8</v>
+      </c>
+      <c r="L72" s="37">
+        <f>VLOOKUP(A72,'JOGOS BASE'!A:E,4,0)</f>
+        <v>50</v>
+      </c>
+      <c r="M72" s="37">
+        <f>VLOOKUP(A72,'JOGOS BASE'!A:E,5,0)</f>
+        <v>53</v>
+      </c>
+      <c r="N72" s="38" t="str">
+        <f t="shared" si="75"/>
+        <v>2</v>
+      </c>
+      <c r="O72" s="37">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="37">
+        <f t="shared" si="77"/>
+        <v>36</v>
+      </c>
+      <c r="Q72" s="37">
+        <f t="shared" si="78"/>
+        <v>50</v>
+      </c>
+      <c r="R72" s="37">
+        <f t="shared" si="79"/>
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
